--- a/scripts/Monitoramento/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/scripts/Monitoramento/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_16DDF94A36FF08D81D5CF41ED0F75427A85FEA6B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_0677AFA57957B3E96D1EF781E4D67BF19FE61601" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BD292A4-6070-4583-8F0A-7960484A98BF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="312">
   <si>
     <t>Formulário</t>
   </si>
@@ -354,43 +354,46 @@
     <t>Willian de Oliveira Lino</t>
   </si>
   <si>
+    <t>08/12/2025</t>
+  </si>
+  <si>
+    <t>Gisele Cássia Tamparowsky de Oliveira</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Marcos Gabriel Franciosi Borges</t>
+  </si>
+  <si>
+    <t>21/03/2025</t>
+  </si>
+  <si>
+    <t>Chayla Bianca Gazoli</t>
+  </si>
+  <si>
+    <t>10/04/2025</t>
+  </si>
+  <si>
+    <t>Solange Maria Masqueti</t>
+  </si>
+  <si>
+    <t>20/03/2025</t>
+  </si>
+  <si>
+    <t>Preencher Qual a despesa anual com os serviços de coleta</t>
+  </si>
+  <si>
+    <t>Cristiane Petry Vieira</t>
+  </si>
+  <si>
+    <t>09/04 - Dados incorretos de arrecadação e despesa - formulário aba 5 - informações financeiras do município</t>
+  </si>
+  <si>
+    <t>Diego Hemerich</t>
+  </si>
+  <si>
     <t>Atrasado</t>
-  </si>
-  <si>
-    <t>Gisele Cássia Tamparowsky de Oliveira</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>Marcos Gabriel Franciosi Borges</t>
-  </si>
-  <si>
-    <t>21/03/2025</t>
-  </si>
-  <si>
-    <t>Chayla Bianca Gazoli</t>
-  </si>
-  <si>
-    <t>10/04/2025</t>
-  </si>
-  <si>
-    <t>Solange Maria Masqueti</t>
-  </si>
-  <si>
-    <t>20/03/2025</t>
-  </si>
-  <si>
-    <t>Preencher Qual a despesa anual com os serviços de coleta</t>
-  </si>
-  <si>
-    <t>Cristiane Petry Vieira</t>
-  </si>
-  <si>
-    <t>09/04 - Dados incorretos de arrecadação e despesa - formulário aba 5 - informações financeiras do município</t>
-  </si>
-  <si>
-    <t>Diego Hemerich</t>
   </si>
   <si>
     <t>Tatiane Girardi</t>
@@ -580,7 +583,7 @@
     <t>Alexandro Aparecido de Lima Vieira</t>
   </si>
   <si>
-    <t>Natielly Pereira Ochoa</t>
+    <t>Rafael Henrique Caetano</t>
   </si>
   <si>
     <t>corrigir aba 5 - lançar dados financeiros da coleta (já comunicado o técnicor</t>
@@ -833,6 +836,9 @@
   </si>
   <si>
     <t>Verificar Equipamentos I - vocês não possuem prensa HORIZONTAL, trocar para VERTICAL. e até onde me lembro uma está quebrada para manutenção, ou não?; esteiras - não possuem esteira de triagem elevada (está como elevação, mas vai ser corrigido), retirar; em outros - mesa de triagem, seria de eletronicos, se tiver mantem, se não, retirar.</t>
+  </si>
+  <si>
+    <t>ID215</t>
   </si>
   <si>
     <t>16/04/2025, 30/05/2025</t>
@@ -927,6 +933,9 @@
   </si>
   <si>
     <t>o alvará é da unidade 06</t>
+  </si>
+  <si>
+    <t>falta anexar documentos</t>
   </si>
   <si>
     <t>26/03/2025</t>
@@ -1392,7 +1401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1446,10 +1455,10 @@
     <xf numFmtId="0" fontId="14" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1534,6 +1543,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2217,7 +2229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2284,19 +2296,19 @@
         <v>10</v>
       </c>
       <c r="AC1" s="4"/>
-      <c r="AD1" s="49" t="s">
+      <c r="AD1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="52"/>
+      <c r="AE1" s="53"/>
       <c r="AF1" s="4"/>
-      <c r="AG1" s="49" t="s">
+      <c r="AG1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="52"/>
-      <c r="AJ1" s="49" t="s">
+      <c r="AH1" s="53"/>
+      <c r="AJ1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="AK1" s="52"/>
+      <c r="AK1" s="53"/>
     </row>
     <row r="2" spans="1:37" ht="15.75" customHeight="1">
       <c r="A2" s="22" t="s">
@@ -2304,19 +2316,19 @@
       </c>
       <c r="B2" s="22">
         <f ca="1">COUNTIF(AE2:AE56,"Enviado")</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="23">
         <f ca="1">B2/SUM($B2,$D2,$F2,$H2)</f>
-        <v>0.81818181818181823</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="D2" s="22">
         <f ca="1">COUNTIF(AE2:AE56,"Atrasado")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="23">
         <f ca="1">D2/SUM($B2,$D2,$F2,$H2)</f>
-        <v>0.16363636363636364</v>
+        <v>0.12727272727272726</v>
       </c>
       <c r="F2" s="22">
         <f ca="1">COUNTIF(AE2:AE56,"Sem Técnico")</f>
@@ -2343,11 +2355,11 @@
       </c>
       <c r="M2" s="6">
         <f ca="1">B2+H2</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N2" s="6">
         <f ca="1">D2</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O2" s="6">
         <f ca="1">F2</f>
@@ -2377,7 +2389,7 @@
       </c>
       <c r="AK2" s="22" t="str">
         <f ca="1">VLOOKUP(AJ2,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="15.75" customHeight="1">
@@ -2386,19 +2398,19 @@
       </c>
       <c r="B3" s="22">
         <f ca="1">COUNTIF(AH2:AH56,"Enviado")</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="23">
         <f ca="1">B3/SUM($B3,$D3,$F3,$H3)</f>
-        <v>0.81818181818181823</v>
+        <v>0.83636363636363631</v>
       </c>
       <c r="D3" s="22">
         <f ca="1">COUNTIF(AH2:AH56,"Atrasado")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="23">
         <f ca="1">D3/SUM($B3,$D3,$F3,$H3)</f>
-        <v>0.14545454545454545</v>
+        <v>0.12727272727272726</v>
       </c>
       <c r="F3" s="22">
         <f ca="1">COUNTIF(AH2:AH56,"Sem Técnico")</f>
@@ -2425,11 +2437,11 @@
       </c>
       <c r="M3" s="6">
         <f ca="1">B3+H3</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N3" s="6">
         <f ca="1">D3</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" s="6">
         <f ca="1">F3</f>
@@ -2442,7 +2454,7 @@
       </c>
       <c r="AE3" s="22" t="str">
         <f ca="1">VLOOKUP(AD3,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="AF3" s="4"/>
       <c r="AG3" s="22" t="str">
@@ -2468,19 +2480,19 @@
       </c>
       <c r="B4" s="22">
         <f ca="1">COUNTIF(AK2:AK56,"Enviado")</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="23">
         <f ca="1">B4/SUM($B4,$D4,$F4,$H4)</f>
-        <v>0.81818181818181823</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="D4" s="22">
         <f ca="1">COUNTIF(AK2:AK56,"Atrasado")</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="23">
         <f ca="1">D4/SUM($B4,$D4,$F4,$H4)</f>
-        <v>0.18181818181818182</v>
+        <v>0.14545454545454545</v>
       </c>
       <c r="F4" s="22">
         <f ca="1">COUNTIF(AK2:AK56,"Sem Técnico")</f>
@@ -2507,11 +2519,11 @@
       </c>
       <c r="M4" s="6">
         <f ca="1">B4+H4</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N4" s="6">
         <f ca="1">D4</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O4" s="6">
         <f ca="1">F4</f>
@@ -2550,19 +2562,19 @@
       </c>
       <c r="B5" s="24">
         <f ca="1">SUM(B2:B4)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C5" s="23">
         <f ca="1">B5/SUM($B5,$D5,$F5,$H5)</f>
-        <v>0.81818181818181823</v>
+        <v>0.84848484848484851</v>
       </c>
       <c r="D5" s="24">
         <f ca="1">SUM(D2:D4)</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5" s="23">
         <f ca="1">D5/SUM($B5,$D5,$F5,$H5)</f>
-        <v>0.16363636363636364</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="F5" s="24">
         <f ca="1">SUM(F2:F4)</f>
@@ -2775,11 +2787,11 @@
       </c>
       <c r="B10" s="22">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!G2:G100"),"Sim")</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="23">
         <f ca="1">$B$10/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
-        <v>0.81159420289855078</v>
+        <v>0.82608695652173914</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -2821,11 +2833,11 @@
       </c>
       <c r="B11" s="22">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!G2:G100"),"Sim")</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="23">
         <f ca="1">$B$11/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
-        <v>0.69565217391304346</v>
+        <v>0.71014492753623193</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2867,11 +2879,11 @@
       </c>
       <c r="B12" s="22">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!G2:G100"),"Sim")</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="23">
         <f ca="1">$B$12/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
-        <v>0.6376811594202898</v>
+        <v>0.65217391304347827</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2984,21 +2996,21 @@
       </c>
     </row>
     <row r="15" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="51" t="s">
+      <c r="C15" s="53"/>
+      <c r="D15" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="51" t="s">
+      <c r="E15" s="53"/>
+      <c r="F15" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="52"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -3030,7 +3042,7 @@
       </c>
     </row>
     <row r="16" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A16" s="53"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
@@ -3143,27 +3155,27 @@
       </c>
       <c r="B18" s="22">
         <f t="array" aca="1" ref="B18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="23">
         <f ca="1">B18/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
-        <v>0.11594202898550725</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="D18" s="22">
         <f t="array" aca="1" ref="D18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" s="23">
         <f ca="1">D18/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
-        <v>8.6956521739130432E-2</v>
+        <v>0.10144927536231885</v>
       </c>
       <c r="F18" s="22">
         <f t="array" aca="1" ref="F18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G18" s="23">
         <f ca="1">F18/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
-        <v>0.10144927536231885</v>
+        <v>0.11594202898550725</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -3349,7 +3361,7 @@
       </c>
       <c r="AE21" s="22" t="str">
         <f ca="1">VLOOKUP(AD21,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="AF21" s="4"/>
       <c r="AG21" s="22" t="str">
@@ -3358,7 +3370,7 @@
       </c>
       <c r="AH21" s="22" t="str">
         <f ca="1">VLOOKUP(AG21,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="AJ21" s="22" t="str">
         <f ca="1"/>
@@ -3366,7 +3378,7 @@
       </c>
       <c r="AK21" s="22" t="str">
         <f ca="1">VLOOKUP(AJ21,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
     </row>
     <row r="22" spans="1:37">
@@ -3433,27 +3445,27 @@
       </c>
       <c r="B23" s="24">
         <f ca="1">SUM(B17:B22)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="32">
         <f ca="1">SUM(C17:C22)</f>
-        <v>0.81159420289855089</v>
+        <v>0.82608695652173914</v>
       </c>
       <c r="D23" s="24">
         <f ca="1">SUM(D17:D22)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" s="32">
         <f ca="1">SUM(E17:E22)</f>
-        <v>0.69565217391304346</v>
+        <v>0.71014492753623182</v>
       </c>
       <c r="F23" s="24">
         <f ca="1">SUM(F17:F22)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G23" s="32">
         <f ca="1">SUM(G17:G22)</f>
-        <v>0.6376811594202898</v>
+        <v>0.65217391304347816</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -4524,7 +4536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4590,7 +4604,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="E2" s="11" t="str">
         <f t="array" aca="1" ref="E2" ca="1">IF(
@@ -5501,7 +5515,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5611,7 +5625,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="E17" s="11" t="str">
         <f t="array" aca="1" ref="E17" ca="1">IF(
@@ -5633,7 +5647,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="F17" s="11" t="str">
         <f t="array" aca="1" ref="F17" ca="1">IF(
@@ -5655,7 +5669,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -9997,11 +10011,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10055,7 +10070,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" hidden="1">
       <c r="A2" s="43" t="s">
         <v>26</v>
       </c>
@@ -10087,7 +10102,7 @@
       </c>
       <c r="L2" s="16"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" hidden="1">
       <c r="A3" s="44" t="s">
         <v>25</v>
       </c>
@@ -10100,11 +10115,13 @@
       <c r="D3" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H3" s="16"/>
@@ -10147,7 +10164,7 @@
       </c>
       <c r="L4" s="16"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" hidden="1">
       <c r="A5" s="44" t="s">
         <v>25</v>
       </c>
@@ -10177,7 +10194,7 @@
       </c>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" hidden="1">
       <c r="A6" s="44" t="s">
         <v>25</v>
       </c>
@@ -10196,7 +10213,7 @@
       <c r="F6" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H6" s="16"/>
@@ -10258,7 +10275,7 @@
       <c r="F8" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H8" s="16" t="s">
@@ -10271,7 +10288,7 @@
       </c>
       <c r="L8" s="16"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" hidden="1">
       <c r="A9" s="44" t="s">
         <v>25</v>
       </c>
@@ -10284,11 +10301,11 @@
       <c r="D9" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>104</v>
+      <c r="E9" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H9" s="16"/>
@@ -10299,7 +10316,7 @@
       </c>
       <c r="L9" s="16"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" hidden="1">
       <c r="A10" s="46" t="s">
         <v>30</v>
       </c>
@@ -10310,13 +10327,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>100</v>
@@ -10329,7 +10346,7 @@
       </c>
       <c r="L10" s="16"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" hidden="1">
       <c r="A11" s="46" t="s">
         <v>30</v>
       </c>
@@ -10340,19 +10357,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -10361,7 +10378,7 @@
       </c>
       <c r="L11" s="16"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12" s="46" t="s">
         <v>30</v>
       </c>
@@ -10372,15 +10389,15 @@
         <v>2</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H12" s="16"/>
@@ -10391,7 +10408,7 @@
       </c>
       <c r="L12" s="16"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" hidden="1">
       <c r="A13" s="46" t="s">
         <v>30</v>
       </c>
@@ -10402,15 +10419,15 @@
         <v>3</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H13" s="16"/>
@@ -10421,7 +10438,7 @@
       </c>
       <c r="L13" s="16"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" hidden="1">
       <c r="A14" s="46" t="s">
         <v>30</v>
       </c>
@@ -10432,15 +10449,15 @@
         <v>4</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H14" s="16"/>
@@ -10451,7 +10468,7 @@
       </c>
       <c r="L14" s="16"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" hidden="1">
       <c r="A15" s="46" t="s">
         <v>30</v>
       </c>
@@ -10462,15 +10479,15 @@
         <v>5</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H15" s="16"/>
@@ -10481,7 +10498,7 @@
       </c>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" hidden="1">
       <c r="A16" s="46" t="s">
         <v>30</v>
       </c>
@@ -10496,9 +10513,9 @@
         <v>5</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H16" s="16"/>
@@ -10509,7 +10526,7 @@
       </c>
       <c r="L16" s="16"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" hidden="1">
       <c r="A17" s="44" t="s">
         <v>25</v>
       </c>
@@ -10520,19 +10537,19 @@
         <v>1</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G17" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
@@ -10541,7 +10558,7 @@
       </c>
       <c r="L17" s="16"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" hidden="1">
       <c r="A18" s="46" t="s">
         <v>30</v>
       </c>
@@ -10552,13 +10569,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>100</v>
@@ -10571,7 +10588,7 @@
       </c>
       <c r="L18" s="16"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" hidden="1">
       <c r="A19" s="44" t="s">
         <v>25</v>
       </c>
@@ -10582,13 +10599,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>104</v>
+        <v>132</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H19" s="16"/>
@@ -10599,7 +10616,7 @@
       </c>
       <c r="L19" s="16"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" hidden="1">
       <c r="A20" s="47" t="s">
         <v>29</v>
       </c>
@@ -10610,13 +10627,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>100</v>
@@ -10629,7 +10646,7 @@
       </c>
       <c r="L20" s="16"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" hidden="1">
       <c r="A21" s="44" t="s">
         <v>25</v>
       </c>
@@ -10640,13 +10657,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>100</v>
@@ -10659,7 +10676,7 @@
       </c>
       <c r="L21" s="16"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" hidden="1">
       <c r="A22" s="47" t="s">
         <v>29</v>
       </c>
@@ -10670,15 +10687,15 @@
         <v>1</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H22" s="16"/>
@@ -10700,19 +10717,19 @@
         <v>1</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
@@ -10721,7 +10738,7 @@
       </c>
       <c r="L23" s="16"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" hidden="1">
       <c r="A24" s="48" t="s">
         <v>28</v>
       </c>
@@ -10732,13 +10749,13 @@
         <v>1</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>100</v>
@@ -10751,7 +10768,7 @@
       </c>
       <c r="L24" s="16"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" hidden="1">
       <c r="A25" s="48" t="s">
         <v>28</v>
       </c>
@@ -10762,19 +10779,19 @@
         <v>2</v>
       </c>
       <c r="D25" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>142</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
@@ -10783,7 +10800,7 @@
       </c>
       <c r="L25" s="16"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" hidden="1">
       <c r="A26" s="48" t="s">
         <v>28</v>
       </c>
@@ -10794,19 +10811,19 @@
         <v>3</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
@@ -10815,7 +10832,7 @@
       </c>
       <c r="L26" s="16"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" hidden="1">
       <c r="A27" s="48" t="s">
         <v>28</v>
       </c>
@@ -10826,19 +10843,19 @@
         <v>4</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
@@ -10847,7 +10864,7 @@
       </c>
       <c r="L27" s="16"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" hidden="1">
       <c r="A28" s="48" t="s">
         <v>28</v>
       </c>
@@ -10858,19 +10875,19 @@
         <v>5</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
@@ -10879,7 +10896,7 @@
       </c>
       <c r="L28" s="16"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" hidden="1">
       <c r="A29" s="48" t="s">
         <v>28</v>
       </c>
@@ -10890,19 +10907,19 @@
         <v>6</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
@@ -10911,7 +10928,7 @@
       </c>
       <c r="L29" s="16"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" hidden="1">
       <c r="A30" s="48" t="s">
         <v>28</v>
       </c>
@@ -10922,19 +10939,19 @@
         <v>7</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
@@ -10943,7 +10960,7 @@
       </c>
       <c r="L30" s="16"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" hidden="1">
       <c r="A31" s="48" t="s">
         <v>28</v>
       </c>
@@ -10954,19 +10971,19 @@
         <v>8</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
@@ -10975,7 +10992,7 @@
       </c>
       <c r="L31" s="16"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" hidden="1">
       <c r="A32" s="48" t="s">
         <v>28</v>
       </c>
@@ -10986,19 +11003,19 @@
         <v>9</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
@@ -11007,7 +11024,7 @@
       </c>
       <c r="L32" s="16"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" hidden="1">
       <c r="A33" s="43" t="s">
         <v>26</v>
       </c>
@@ -11018,13 +11035,13 @@
         <v>1</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>104</v>
+        <v>153</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F33" s="16"/>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H33" s="16"/>
@@ -11035,7 +11052,7 @@
       </c>
       <c r="L33" s="16"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" hidden="1">
       <c r="A34" s="43" t="s">
         <v>26</v>
       </c>
@@ -11046,14 +11063,16 @@
         <v>1</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="20" t="s">
-        <v>102</v>
+        <v>154</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="49">
+        <v>46000</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
@@ -11063,7 +11082,7 @@
       </c>
       <c r="L34" s="16"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" hidden="1">
       <c r="A35" s="44" t="s">
         <v>25</v>
       </c>
@@ -11074,32 +11093,32 @@
         <v>1</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="G35" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G35" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I35" s="16"/>
       <c r="J35" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K35" s="16" t="s">
         <v>100</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" hidden="1">
       <c r="A36" s="44" t="s">
         <v>25</v>
       </c>
@@ -11110,19 +11129,19 @@
         <v>1</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
@@ -11131,7 +11150,7 @@
       </c>
       <c r="L36" s="16"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" hidden="1">
       <c r="A37" s="44" t="s">
         <v>25</v>
       </c>
@@ -11142,19 +11161,19 @@
         <v>1</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
@@ -11174,19 +11193,19 @@
         <v>1</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="G38" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
@@ -11195,7 +11214,7 @@
       </c>
       <c r="L38" s="16"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" hidden="1">
       <c r="A39" s="47" t="s">
         <v>29</v>
       </c>
@@ -11206,15 +11225,15 @@
         <v>1</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="G39" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H39" s="16"/>
@@ -11236,15 +11255,15 @@
         <v>1</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="G40" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H40" s="16"/>
@@ -11255,7 +11274,7 @@
       </c>
       <c r="L40" s="16"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" hidden="1">
       <c r="A41" s="46" t="s">
         <v>30</v>
       </c>
@@ -11266,13 +11285,13 @@
         <v>1</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>104</v>
+        <v>173</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F41" s="16"/>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H41" s="16"/>
@@ -11283,7 +11302,7 @@
       </c>
       <c r="L41" s="16"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" hidden="1">
       <c r="A42" s="47" t="s">
         <v>29</v>
       </c>
@@ -11294,15 +11313,15 @@
         <v>1</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G42" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G42" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H42" s="16"/>
@@ -11313,7 +11332,7 @@
       </c>
       <c r="L42" s="16"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" hidden="1">
       <c r="A43" s="47" t="s">
         <v>29</v>
       </c>
@@ -11324,15 +11343,15 @@
         <v>2</v>
       </c>
       <c r="D43" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="E43" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H43" s="16"/>
@@ -11354,15 +11373,15 @@
         <v>1</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="G44" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G44" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H44" s="16"/>
@@ -11373,7 +11392,7 @@
       </c>
       <c r="L44" s="16"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" hidden="1">
       <c r="A45" s="47" t="s">
         <v>29</v>
       </c>
@@ -11384,13 +11403,13 @@
         <v>1</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>100</v>
@@ -11403,7 +11422,7 @@
       </c>
       <c r="L45" s="16"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" hidden="1">
       <c r="A46" s="48" t="s">
         <v>28</v>
       </c>
@@ -11414,19 +11433,19 @@
         <v>1</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G46" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
@@ -11435,7 +11454,7 @@
       </c>
       <c r="L46" s="16"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" hidden="1">
       <c r="A47" s="43" t="s">
         <v>26</v>
       </c>
@@ -11446,15 +11465,15 @@
         <v>1</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="G47" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H47" s="16"/>
@@ -11465,7 +11484,7 @@
       </c>
       <c r="L47" s="16"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" hidden="1">
       <c r="A48" s="47" t="s">
         <v>29</v>
       </c>
@@ -11476,13 +11495,13 @@
         <v>1</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>100</v>
@@ -11495,7 +11514,7 @@
       </c>
       <c r="L48" s="16"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" hidden="1">
       <c r="A49" s="43" t="s">
         <v>26</v>
       </c>
@@ -11506,19 +11525,19 @@
         <v>1</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
@@ -11538,19 +11557,19 @@
         <v>1</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="G50" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G50" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
@@ -11559,7 +11578,7 @@
       </c>
       <c r="L50" s="16"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" hidden="1">
       <c r="A51" s="43" t="s">
         <v>26</v>
       </c>
@@ -11570,19 +11589,19 @@
         <v>1</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
@@ -11591,7 +11610,7 @@
       </c>
       <c r="L51" s="16"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" hidden="1">
       <c r="A52" s="43" t="s">
         <v>26</v>
       </c>
@@ -11602,19 +11621,19 @@
         <v>1</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G52" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
@@ -11634,15 +11653,15 @@
         <v>1</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="G53" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G53" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H53" s="16"/>
@@ -11653,7 +11672,7 @@
       </c>
       <c r="L53" s="16"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" hidden="1">
       <c r="A54" s="47" t="s">
         <v>29</v>
       </c>
@@ -11664,19 +11683,19 @@
         <v>1</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
@@ -11685,7 +11704,7 @@
       </c>
       <c r="L54" s="16"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" hidden="1">
       <c r="A55" s="43" t="s">
         <v>26</v>
       </c>
@@ -11696,19 +11715,19 @@
         <v>1</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G55" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I55" s="16"/>
       <c r="J55" s="16"/>
@@ -11717,7 +11736,7 @@
       </c>
       <c r="L55" s="16"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" hidden="1">
       <c r="A56" s="47" t="s">
         <v>29</v>
       </c>
@@ -11728,15 +11747,15 @@
         <v>1</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="G56" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G56" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H56" s="16"/>
@@ -11747,7 +11766,7 @@
       </c>
       <c r="L56" s="16"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" hidden="1">
       <c r="A57" s="47" t="s">
         <v>29</v>
       </c>
@@ -11758,15 +11777,15 @@
         <v>1</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="G57" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G57" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H57" s="16"/>
@@ -11777,7 +11796,7 @@
       </c>
       <c r="L57" s="16"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" hidden="1">
       <c r="A58" s="46" t="s">
         <v>30</v>
       </c>
@@ -11788,13 +11807,13 @@
         <v>1</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>104</v>
+        <v>208</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F58" s="16"/>
-      <c r="G58" s="20" t="s">
+      <c r="G58" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H58" s="16"/>
@@ -11805,7 +11824,7 @@
       </c>
       <c r="L58" s="16"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" hidden="1">
       <c r="A59" s="46" t="s">
         <v>30</v>
       </c>
@@ -11816,7 +11835,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>98</v>
@@ -11835,7 +11854,7 @@
       </c>
       <c r="L59" s="16"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" hidden="1">
       <c r="A60" s="48" t="s">
         <v>28</v>
       </c>
@@ -11846,19 +11865,19 @@
         <v>1</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
@@ -11867,7 +11886,7 @@
       </c>
       <c r="L60" s="16"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" hidden="1">
       <c r="A61" s="43" t="s">
         <v>26</v>
       </c>
@@ -11878,19 +11897,19 @@
         <v>1</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E61" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G61" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
@@ -11899,7 +11918,7 @@
       </c>
       <c r="L61" s="16"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" hidden="1">
       <c r="A62" s="48" t="s">
         <v>28</v>
       </c>
@@ -11910,19 +11929,19 @@
         <v>1</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E62" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G62" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
@@ -11931,7 +11950,7 @@
       </c>
       <c r="L62" s="16"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" hidden="1">
       <c r="A63" s="47" t="s">
         <v>29</v>
       </c>
@@ -11942,15 +11961,15 @@
         <v>1</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E63" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="G63" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G63" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H63" s="16"/>
@@ -11961,7 +11980,7 @@
       </c>
       <c r="L63" s="16"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" hidden="1">
       <c r="A64" s="48" t="s">
         <v>28</v>
       </c>
@@ -11972,13 +11991,13 @@
         <v>1</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E64" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>100</v>
@@ -11991,7 +12010,7 @@
       </c>
       <c r="L64" s="16"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" hidden="1">
       <c r="A65" s="43" t="s">
         <v>26</v>
       </c>
@@ -12002,32 +12021,32 @@
         <v>1</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I65" s="16"/>
       <c r="J65" s="16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K65" s="16" t="s">
         <v>100</v>
       </c>
       <c r="L65" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" hidden="1">
       <c r="A66" s="43" t="s">
         <v>26</v>
       </c>
@@ -12038,19 +12057,19 @@
         <v>1</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G66" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I66" s="16"/>
       <c r="J66" s="16"/>
@@ -12059,7 +12078,7 @@
       </c>
       <c r="L66" s="16"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" hidden="1">
       <c r="A67" s="44" t="s">
         <v>25</v>
       </c>
@@ -12070,7 +12089,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>98</v>
@@ -12082,7 +12101,7 @@
         <v>100</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I67" s="16"/>
       <c r="J67" s="16"/>
@@ -12102,19 +12121,19 @@
         <v>1</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="G68" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="G68" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I68" s="16"/>
       <c r="J68" s="16"/>
@@ -12134,13 +12153,13 @@
         <v>1</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>104</v>
+        <v>235</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F69" s="16"/>
-      <c r="G69" s="20" t="s">
+      <c r="G69" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H69" s="16"/>
@@ -12151,7 +12170,7 @@
       </c>
       <c r="L69" s="16"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" hidden="1">
       <c r="A70" s="47" t="s">
         <v>29</v>
       </c>
@@ -12162,13 +12181,13 @@
         <v>1</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>104</v>
+        <v>236</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F70" s="16"/>
-      <c r="G70" s="20" t="s">
+      <c r="G70" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H70" s="16"/>
@@ -12180,7 +12199,13 @@
       <c r="L70" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:G70" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Gustavo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G70">
     <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -12234,11 +12259,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12291,7 +12317,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" s="43" t="s">
         <v>26</v>
       </c>
@@ -12309,13 +12335,13 @@
         <v>98</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="16" t="s">
@@ -12323,7 +12349,7 @@
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="44" t="s">
         <v>25</v>
       </c>
@@ -12347,7 +12373,7 @@
         <v>100</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16" t="s">
@@ -12373,13 +12399,13 @@
         <v>98</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16" t="s">
@@ -12387,7 +12413,7 @@
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="44" t="s">
         <v>25</v>
       </c>
@@ -12405,13 +12431,13 @@
         <v>98</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16" t="s">
@@ -12419,7 +12445,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="44" t="s">
         <v>25</v>
       </c>
@@ -12437,9 +12463,9 @@
         <v>98</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="G6" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H6" s="16"/>
@@ -12473,7 +12499,7 @@
         <v>100</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16" t="s">
@@ -12501,7 +12527,7 @@
       <c r="F8" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H8" s="16"/>
@@ -12511,7 +12537,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="44" t="s">
         <v>25</v>
       </c>
@@ -12525,11 +12551,11 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Diego Hemerich</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>104</v>
+      <c r="E9" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H9" s="16"/>
@@ -12539,7 +12565,7 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="46" t="s">
         <v>30</v>
       </c>
@@ -12557,7 +12583,7 @@
         <v>98</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>100</v>
@@ -12569,7 +12595,7 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="46" t="s">
         <v>30</v>
       </c>
@@ -12599,7 +12625,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="46" t="s">
         <v>30</v>
       </c>
@@ -12629,7 +12655,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="46" t="s">
         <v>30</v>
       </c>
@@ -12659,7 +12685,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="46" t="s">
         <v>30</v>
       </c>
@@ -12677,13 +12703,13 @@
         <v>5</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16" t="s">
@@ -12691,7 +12717,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="46" t="s">
         <v>30</v>
       </c>
@@ -12709,7 +12735,7 @@
         <v>98</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>100</v>
@@ -12721,7 +12747,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="46" t="s">
         <v>30</v>
       </c>
@@ -12739,7 +12765,7 @@
         <v>98</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>100</v>
@@ -12751,7 +12777,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="44" t="s">
         <v>25</v>
       </c>
@@ -12781,7 +12807,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="46" t="s">
         <v>30</v>
       </c>
@@ -12799,7 +12825,7 @@
         <v>98</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>100</v>
@@ -12811,7 +12837,7 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="44" t="s">
         <v>25</v>
       </c>
@@ -12825,11 +12851,11 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Vanderson Pasetti</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>104</v>
+      <c r="E19" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H19" s="16"/>
@@ -12839,7 +12865,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="44" t="s">
         <v>25</v>
       </c>
@@ -12857,7 +12883,7 @@
         <v>98</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>100</v>
@@ -12869,7 +12895,7 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="47" t="s">
         <v>29</v>
       </c>
@@ -12899,7 +12925,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="47" t="s">
         <v>29</v>
       </c>
@@ -12917,7 +12943,7 @@
         <v>98</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>100</v>
@@ -12947,9 +12973,9 @@
         <v>98</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="G23" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H23" s="16"/>
@@ -12959,7 +12985,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="48" t="s">
         <v>28</v>
       </c>
@@ -12977,9 +13003,9 @@
         <v>98</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="G24" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="G24" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H24" s="16"/>
@@ -12989,7 +13015,7 @@
       </c>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="48" t="s">
         <v>28</v>
       </c>
@@ -13007,13 +13033,13 @@
         <v>98</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16" t="s">
@@ -13021,7 +13047,7 @@
       </c>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" s="48" t="s">
         <v>28</v>
       </c>
@@ -13039,13 +13065,13 @@
         <v>98</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="16" t="s">
@@ -13053,7 +13079,7 @@
       </c>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" s="48" t="s">
         <v>28</v>
       </c>
@@ -13077,7 +13103,7 @@
         <v>100</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I27" s="16"/>
       <c r="J27" s="16" t="s">
@@ -13085,7 +13111,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" s="48" t="s">
         <v>28</v>
       </c>
@@ -13103,7 +13129,7 @@
         <v>98</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>100</v>
@@ -13115,7 +13141,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="48" t="s">
         <v>28</v>
       </c>
@@ -13139,7 +13165,7 @@
         <v>100</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
@@ -13147,7 +13173,7 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="48" t="s">
         <v>28</v>
       </c>
@@ -13165,13 +13191,13 @@
         <v>98</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16" t="s">
@@ -13179,7 +13205,7 @@
       </c>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="48" t="s">
         <v>28</v>
       </c>
@@ -13197,13 +13223,13 @@
         <v>98</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I31" s="16"/>
       <c r="J31" s="16" t="s">
@@ -13211,7 +13237,7 @@
       </c>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32" s="48" t="s">
         <v>28</v>
       </c>
@@ -13229,7 +13255,7 @@
         <v>98</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>100</v>
@@ -13241,7 +13267,7 @@
       </c>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33" s="43" t="s">
         <v>26</v>
       </c>
@@ -13255,11 +13281,11 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Paulo Rogerio Hiroshi Fujii</v>
       </c>
-      <c r="E33" s="19" t="s">
-        <v>104</v>
+      <c r="E33" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F33" s="16"/>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H33" s="16"/>
@@ -13269,7 +13295,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="43" t="s">
         <v>26</v>
       </c>
@@ -13283,12 +13309,14 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Marlene R. Oliveira Dallacosta</v>
       </c>
-      <c r="E34" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="20" t="s">
-        <v>102</v>
+      <c r="E34" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="49">
+        <v>46000</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
@@ -13297,7 +13325,7 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="44" t="s">
         <v>25</v>
       </c>
@@ -13315,7 +13343,7 @@
         <v>98</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>100</v>
@@ -13327,7 +13355,7 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="44" t="s">
         <v>25</v>
       </c>
@@ -13345,7 +13373,7 @@
         <v>98</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>100</v>
@@ -13357,7 +13385,7 @@
       </c>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="44" t="s">
         <v>25</v>
       </c>
@@ -13375,7 +13403,7 @@
         <v>98</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>100</v>
@@ -13405,9 +13433,9 @@
         <v>98</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G38" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H38" s="16"/>
@@ -13417,7 +13445,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="47" t="s">
         <v>29</v>
       </c>
@@ -13435,7 +13463,7 @@
         <v>98</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G39" s="18" t="s">
         <v>100</v>
@@ -13461,11 +13489,11 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>César Piva Glinglani</v>
       </c>
-      <c r="E40" s="19" t="s">
-        <v>104</v>
+      <c r="E40" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F40" s="16"/>
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H40" s="16"/>
@@ -13475,7 +13503,7 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="46" t="s">
         <v>30</v>
       </c>
@@ -13489,11 +13517,11 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Ailton Carlos Fialho</v>
       </c>
-      <c r="E41" s="19" t="s">
-        <v>104</v>
+      <c r="E41" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F41" s="16"/>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H41" s="16"/>
@@ -13503,7 +13531,7 @@
       </c>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="47" t="s">
         <v>29</v>
       </c>
@@ -13521,7 +13549,7 @@
         <v>98</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G42" s="18" t="s">
         <v>100</v>
@@ -13533,7 +13561,7 @@
       </c>
       <c r="K42" s="16"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43" s="47" t="s">
         <v>29</v>
       </c>
@@ -13551,7 +13579,7 @@
         <v>98</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>100</v>
@@ -13581,9 +13609,9 @@
         <v>98</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="G44" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G44" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H44" s="16"/>
@@ -13593,7 +13621,7 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45" s="47" t="s">
         <v>29</v>
       </c>
@@ -13611,7 +13639,7 @@
         <v>98</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>100</v>
@@ -13623,7 +13651,7 @@
       </c>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46" s="48" t="s">
         <v>28</v>
       </c>
@@ -13635,19 +13663,19 @@
       </c>
       <c r="D46" s="16" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
-        <v>Natielly Pereira Ochoa</v>
+        <v>Rafael Henrique Caetano</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G46" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I46" s="16"/>
       <c r="J46" s="16" t="s">
@@ -13655,7 +13683,7 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="43" t="s">
         <v>26</v>
       </c>
@@ -13673,9 +13701,9 @@
         <v>98</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="G47" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H47" s="16"/>
@@ -13685,7 +13713,7 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48" s="47" t="s">
         <v>29</v>
       </c>
@@ -13703,7 +13731,7 @@
         <v>98</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>100</v>
@@ -13715,7 +13743,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="43" t="s">
         <v>26</v>
       </c>
@@ -13733,15 +13761,17 @@
         <v>5</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="G49" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="G49" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="I49" s="16"/>
+        <v>264</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>265</v>
+      </c>
       <c r="J49" s="16" t="s">
         <v>102</v>
       </c>
@@ -13765,9 +13795,9 @@
         <v>5</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="G50" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G50" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H50" s="16"/>
@@ -13777,7 +13807,7 @@
       </c>
       <c r="K50" s="16"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" hidden="1">
       <c r="A51" s="43" t="s">
         <v>26</v>
       </c>
@@ -13795,13 +13825,13 @@
         <v>98</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I51" s="16"/>
       <c r="J51" s="16" t="s">
@@ -13809,7 +13839,7 @@
       </c>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52" s="43" t="s">
         <v>26</v>
       </c>
@@ -13827,13 +13857,13 @@
         <v>98</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G52" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I52" s="16"/>
       <c r="J52" s="16" t="s">
@@ -13859,9 +13889,9 @@
         <v>98</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="G53" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G53" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H53" s="16"/>
@@ -13871,7 +13901,7 @@
       </c>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54" s="47" t="s">
         <v>29</v>
       </c>
@@ -13889,7 +13919,7 @@
         <v>98</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>100</v>
@@ -13901,7 +13931,7 @@
       </c>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="43" t="s">
         <v>26</v>
       </c>
@@ -13919,13 +13949,13 @@
         <v>98</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G55" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I55" s="16"/>
       <c r="J55" s="16" t="s">
@@ -13933,7 +13963,7 @@
       </c>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="47" t="s">
         <v>29</v>
       </c>
@@ -13947,11 +13977,11 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Ana Paula Romagnoli</v>
       </c>
-      <c r="E56" s="19" t="s">
-        <v>104</v>
+      <c r="E56" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F56" s="16"/>
-      <c r="G56" s="20" t="s">
+      <c r="G56" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H56" s="16"/>
@@ -13961,7 +13991,7 @@
       </c>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="47" t="s">
         <v>29</v>
       </c>
@@ -13979,7 +14009,7 @@
         <v>98</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G57" s="18" t="s">
         <v>100</v>
@@ -13991,7 +14021,7 @@
       </c>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="46" t="s">
         <v>30</v>
       </c>
@@ -14009,13 +14039,13 @@
         <v>98</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G58" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I58" s="16"/>
       <c r="J58" s="16" t="s">
@@ -14023,7 +14053,7 @@
       </c>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" hidden="1">
       <c r="A59" s="46" t="s">
         <v>30</v>
       </c>
@@ -14041,7 +14071,7 @@
         <v>98</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G59" s="18" t="s">
         <v>100</v>
@@ -14053,7 +14083,7 @@
       </c>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" hidden="1">
       <c r="A60" s="48" t="s">
         <v>28</v>
       </c>
@@ -14071,7 +14101,7 @@
         <v>98</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>100</v>
@@ -14083,7 +14113,7 @@
       </c>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61" s="43" t="s">
         <v>26</v>
       </c>
@@ -14101,13 +14131,13 @@
         <v>98</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G61" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I61" s="16"/>
       <c r="J61" s="16" t="s">
@@ -14115,7 +14145,7 @@
       </c>
       <c r="K61" s="16"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62" s="48" t="s">
         <v>28</v>
       </c>
@@ -14133,23 +14163,23 @@
         <v>98</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G62" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="16" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J62" s="16" t="s">
         <v>100</v>
       </c>
       <c r="K62" s="16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" hidden="1">
       <c r="A63" s="47" t="s">
         <v>29</v>
       </c>
@@ -14167,7 +14197,7 @@
         <v>98</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G63" s="18" t="s">
         <v>100</v>
@@ -14179,7 +14209,7 @@
       </c>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" hidden="1">
       <c r="A64" s="48" t="s">
         <v>28</v>
       </c>
@@ -14197,13 +14227,13 @@
         <v>98</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I64" s="16"/>
       <c r="J64" s="16" t="s">
@@ -14211,7 +14241,7 @@
       </c>
       <c r="K64" s="16"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" hidden="1">
       <c r="A65" s="43" t="s">
         <v>26</v>
       </c>
@@ -14229,25 +14259,25 @@
         <v>98</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J65" s="16" t="s">
         <v>100</v>
       </c>
       <c r="K65" s="16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1">
       <c r="A66" s="43" t="s">
         <v>26</v>
       </c>
@@ -14265,9 +14295,9 @@
         <v>98</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="G66" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="G66" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H66" s="16"/>
@@ -14277,7 +14307,7 @@
       </c>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67" s="44" t="s">
         <v>25</v>
       </c>
@@ -14301,7 +14331,7 @@
         <v>100</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I67" s="16"/>
       <c r="J67" s="16" t="s">
@@ -14327,9 +14357,9 @@
         <v>98</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G68" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G68" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H68" s="16"/>
@@ -14357,9 +14387,9 @@
         <v>98</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="G69" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G69" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H69" s="16"/>
@@ -14369,7 +14399,7 @@
       </c>
       <c r="K69" s="16"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" hidden="1">
       <c r="A70" s="47" t="s">
         <v>29</v>
       </c>
@@ -14383,11 +14413,11 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B70&amp;C70, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B70&amp;C70, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Heloísa Maria Beloni Insenha</v>
       </c>
-      <c r="E70" s="19" t="s">
-        <v>104</v>
+      <c r="E70" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F70" s="16"/>
-      <c r="G70" s="20" t="s">
+      <c r="G70" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H70" s="16"/>
@@ -14398,7 +14428,13 @@
       <c r="K70" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:G70" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Gustavo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G70">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -14452,11 +14488,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14508,7 +14545,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" s="43" t="s">
         <v>26</v>
       </c>
@@ -14522,12 +14559,14 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Paula Tatiana Santana Vechi</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="20" t="s">
-        <v>102</v>
+      <c r="E2" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="49">
+        <v>46000</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -14536,7 +14575,7 @@
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="44" t="s">
         <v>25</v>
       </c>
@@ -14554,9 +14593,9 @@
         <v>98</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="G3" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H3" s="16"/>
@@ -14584,7 +14623,7 @@
         <v>98</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>100</v>
@@ -14598,7 +14637,7 @@
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="44" t="s">
         <v>25</v>
       </c>
@@ -14616,13 +14655,13 @@
         <v>98</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16" t="s">
@@ -14630,7 +14669,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="44" t="s">
         <v>25</v>
       </c>
@@ -14648,9 +14687,9 @@
         <v>98</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="G6" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H6" s="16"/>
@@ -14684,7 +14723,7 @@
         <v>100</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16" t="s">
@@ -14706,11 +14745,11 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Cristiane Petry Vieira</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>104</v>
+      <c r="E8" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H8" s="16"/>
@@ -14720,7 +14759,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="44" t="s">
         <v>25</v>
       </c>
@@ -14734,11 +14773,11 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Diego Hemerich</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>104</v>
+      <c r="E9" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H9" s="16"/>
@@ -14748,7 +14787,7 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="46" t="s">
         <v>30</v>
       </c>
@@ -14766,23 +14805,23 @@
         <v>98</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>100</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="46" t="s">
         <v>30</v>
       </c>
@@ -14812,7 +14851,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="46" t="s">
         <v>30</v>
       </c>
@@ -14842,7 +14881,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="46" t="s">
         <v>30</v>
       </c>
@@ -14872,7 +14911,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="46" t="s">
         <v>30</v>
       </c>
@@ -14890,13 +14929,13 @@
         <v>5</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16" t="s">
@@ -14904,7 +14943,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="46" t="s">
         <v>30</v>
       </c>
@@ -14922,7 +14961,7 @@
         <v>98</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>100</v>
@@ -14934,7 +14973,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="46" t="s">
         <v>30</v>
       </c>
@@ -14952,9 +14991,9 @@
         <v>98</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="G16" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H16" s="16"/>
@@ -14964,7 +15003,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="44" t="s">
         <v>25</v>
       </c>
@@ -14994,7 +15033,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="46" t="s">
         <v>30</v>
       </c>
@@ -15012,7 +15051,7 @@
         <v>98</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>100</v>
@@ -15024,7 +15063,7 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="44" t="s">
         <v>25</v>
       </c>
@@ -15038,11 +15077,11 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Vanderson Pasetti</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>104</v>
+      <c r="E19" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H19" s="16"/>
@@ -15052,7 +15091,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="44" t="s">
         <v>25</v>
       </c>
@@ -15070,7 +15109,7 @@
         <v>98</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>100</v>
@@ -15082,7 +15121,7 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="47" t="s">
         <v>29</v>
       </c>
@@ -15100,13 +15139,13 @@
         <v>98</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
@@ -15114,7 +15153,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="47" t="s">
         <v>29</v>
       </c>
@@ -15132,7 +15171,7 @@
         <v>98</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>100</v>
@@ -15162,9 +15201,9 @@
         <v>98</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H23" s="16"/>
@@ -15174,7 +15213,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="48" t="s">
         <v>28</v>
       </c>
@@ -15192,9 +15231,9 @@
         <v>98</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="G24" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="G24" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H24" s="16"/>
@@ -15204,7 +15243,7 @@
       </c>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="48" t="s">
         <v>28</v>
       </c>
@@ -15222,7 +15261,7 @@
         <v>98</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>100</v>
@@ -15234,7 +15273,7 @@
       </c>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" s="48" t="s">
         <v>28</v>
       </c>
@@ -15252,7 +15291,7 @@
         <v>98</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>100</v>
@@ -15264,7 +15303,7 @@
       </c>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" s="48" t="s">
         <v>28</v>
       </c>
@@ -15294,7 +15333,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" s="48" t="s">
         <v>28</v>
       </c>
@@ -15312,7 +15351,7 @@
         <v>98</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>100</v>
@@ -15324,7 +15363,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="48" t="s">
         <v>28</v>
       </c>
@@ -15348,7 +15387,7 @@
         <v>100</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
@@ -15356,7 +15395,7 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="48" t="s">
         <v>28</v>
       </c>
@@ -15374,13 +15413,13 @@
         <v>98</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16" t="s">
@@ -15388,7 +15427,7 @@
       </c>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="48" t="s">
         <v>28</v>
       </c>
@@ -15406,13 +15445,13 @@
         <v>98</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I31" s="16"/>
       <c r="J31" s="16" t="s">
@@ -15420,7 +15459,7 @@
       </c>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32" s="48" t="s">
         <v>28</v>
       </c>
@@ -15438,13 +15477,13 @@
         <v>98</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I32" s="16"/>
       <c r="J32" s="16" t="s">
@@ -15452,7 +15491,7 @@
       </c>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33" s="43" t="s">
         <v>26</v>
       </c>
@@ -15466,11 +15505,11 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Paulo Rogerio Hiroshi Fujii</v>
       </c>
-      <c r="E33" s="19" t="s">
-        <v>104</v>
+      <c r="E33" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F33" s="16"/>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H33" s="16"/>
@@ -15480,7 +15519,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="43" t="s">
         <v>26</v>
       </c>
@@ -15494,21 +15533,25 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Marlene R. Oliveira Dallacosta</v>
       </c>
-      <c r="E34" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" s="16"/>
+      <c r="E34" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="49">
+        <v>46000</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>297</v>
+      </c>
       <c r="I34" s="16"/>
       <c r="J34" s="16" t="s">
         <v>102</v>
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="44" t="s">
         <v>25</v>
       </c>
@@ -15526,9 +15569,9 @@
         <v>98</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="G35" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="G35" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H35" s="16"/>
@@ -15538,7 +15581,7 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="44" t="s">
         <v>25</v>
       </c>
@@ -15556,7 +15599,7 @@
         <v>98</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>100</v>
@@ -15568,7 +15611,7 @@
       </c>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="44" t="s">
         <v>25</v>
       </c>
@@ -15586,7 +15629,7 @@
         <v>98</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>100</v>
@@ -15616,9 +15659,9 @@
         <v>98</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G38" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H38" s="16"/>
@@ -15628,7 +15671,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="47" t="s">
         <v>29</v>
       </c>
@@ -15646,7 +15689,7 @@
         <v>98</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G39" s="18" t="s">
         <v>100</v>
@@ -15676,9 +15719,9 @@
         <v>98</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="G40" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H40" s="16"/>
@@ -15688,7 +15731,7 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="46" t="s">
         <v>30</v>
       </c>
@@ -15702,11 +15745,11 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Ailton Carlos Fialho</v>
       </c>
-      <c r="E41" s="19" t="s">
-        <v>104</v>
+      <c r="E41" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F41" s="16"/>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H41" s="16"/>
@@ -15716,7 +15759,7 @@
       </c>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="47" t="s">
         <v>29</v>
       </c>
@@ -15734,7 +15777,7 @@
         <v>98</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G42" s="18" t="s">
         <v>100</v>
@@ -15746,7 +15789,7 @@
       </c>
       <c r="K42" s="16"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43" s="47" t="s">
         <v>29</v>
       </c>
@@ -15764,7 +15807,7 @@
         <v>98</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>100</v>
@@ -15794,9 +15837,9 @@
         <v>98</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="G44" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G44" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H44" s="16"/>
@@ -15806,7 +15849,7 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45" s="47" t="s">
         <v>29</v>
       </c>
@@ -15824,7 +15867,7 @@
         <v>98</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>100</v>
@@ -15836,7 +15879,7 @@
       </c>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46" s="48" t="s">
         <v>28</v>
       </c>
@@ -15848,19 +15891,19 @@
       </c>
       <c r="D46" s="16" t="str">
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
-        <v>Natielly Pereira Ochoa</v>
+        <v>Rafael Henrique Caetano</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G46" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I46" s="16"/>
       <c r="J46" s="16" t="s">
@@ -15868,7 +15911,7 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="43" t="s">
         <v>26</v>
       </c>
@@ -15886,9 +15929,9 @@
         <v>98</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="G47" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H47" s="16"/>
@@ -15898,7 +15941,7 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48" s="47" t="s">
         <v>29</v>
       </c>
@@ -15916,7 +15959,7 @@
         <v>98</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>100</v>
@@ -15928,7 +15971,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="43" t="s">
         <v>26</v>
       </c>
@@ -15946,13 +15989,13 @@
         <v>98</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="I49" s="16"/>
       <c r="J49" s="16" t="s">
@@ -15978,9 +16021,9 @@
         <v>98</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="G50" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G50" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H50" s="16"/>
@@ -15990,7 +16033,7 @@
       </c>
       <c r="K50" s="16"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" hidden="1">
       <c r="A51" s="43" t="s">
         <v>26</v>
       </c>
@@ -16008,13 +16051,13 @@
         <v>98</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="I51" s="16"/>
       <c r="J51" s="16" t="s">
@@ -16022,7 +16065,7 @@
       </c>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52" s="43" t="s">
         <v>26</v>
       </c>
@@ -16040,13 +16083,13 @@
         <v>98</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G52" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="I52" s="16"/>
       <c r="J52" s="16" t="s">
@@ -16072,9 +16115,9 @@
         <v>98</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="G53" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G53" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H53" s="16"/>
@@ -16084,7 +16127,7 @@
       </c>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54" s="47" t="s">
         <v>29</v>
       </c>
@@ -16102,7 +16145,7 @@
         <v>98</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>100</v>
@@ -16114,7 +16157,7 @@
       </c>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="43" t="s">
         <v>26</v>
       </c>
@@ -16132,13 +16175,13 @@
         <v>98</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G55" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="I55" s="16"/>
       <c r="J55" s="16" t="s">
@@ -16146,7 +16189,7 @@
       </c>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="47" t="s">
         <v>29</v>
       </c>
@@ -16160,11 +16203,11 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Ana Paula Romagnoli</v>
       </c>
-      <c r="E56" s="19" t="s">
-        <v>104</v>
+      <c r="E56" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F56" s="16"/>
-      <c r="G56" s="20" t="s">
+      <c r="G56" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H56" s="16"/>
@@ -16174,7 +16217,7 @@
       </c>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="47" t="s">
         <v>29</v>
       </c>
@@ -16192,7 +16235,7 @@
         <v>98</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G57" s="18" t="s">
         <v>100</v>
@@ -16204,7 +16247,7 @@
       </c>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="46" t="s">
         <v>30</v>
       </c>
@@ -16218,11 +16261,11 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Marina Ancelmo da Silva</v>
       </c>
-      <c r="E58" s="19" t="s">
-        <v>104</v>
+      <c r="E58" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F58" s="16"/>
-      <c r="G58" s="20" t="s">
+      <c r="G58" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H58" s="16"/>
@@ -16232,7 +16275,7 @@
       </c>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" hidden="1">
       <c r="A59" s="46" t="s">
         <v>30</v>
       </c>
@@ -16262,7 +16305,7 @@
       </c>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" hidden="1">
       <c r="A60" s="48" t="s">
         <v>28</v>
       </c>
@@ -16280,7 +16323,7 @@
         <v>98</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>100</v>
@@ -16292,7 +16335,7 @@
       </c>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61" s="43" t="s">
         <v>26</v>
       </c>
@@ -16310,7 +16353,7 @@
         <v>98</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G61" s="18" t="s">
         <v>100</v>
@@ -16322,7 +16365,7 @@
       </c>
       <c r="K61" s="16"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62" s="48" t="s">
         <v>28</v>
       </c>
@@ -16340,7 +16383,7 @@
         <v>98</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G62" s="18" t="s">
         <v>100</v>
@@ -16352,7 +16395,7 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" hidden="1">
       <c r="A63" s="47" t="s">
         <v>29</v>
       </c>
@@ -16370,7 +16413,7 @@
         <v>98</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G63" s="18" t="s">
         <v>100</v>
@@ -16382,7 +16425,7 @@
       </c>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" hidden="1">
       <c r="A64" s="48" t="s">
         <v>28</v>
       </c>
@@ -16400,7 +16443,7 @@
         <v>98</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>100</v>
@@ -16412,7 +16455,7 @@
       </c>
       <c r="K64" s="16"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" hidden="1">
       <c r="A65" s="43" t="s">
         <v>26</v>
       </c>
@@ -16430,25 +16473,25 @@
         <v>98</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="J65" s="16" t="s">
         <v>100</v>
       </c>
       <c r="K65" s="16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1">
       <c r="A66" s="43" t="s">
         <v>26</v>
       </c>
@@ -16466,25 +16509,25 @@
         <v>98</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G66" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I66" s="16" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="J66" s="16" t="s">
         <v>100</v>
       </c>
       <c r="K66" s="16" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67" s="44" t="s">
         <v>25</v>
       </c>
@@ -16504,7 +16547,7 @@
       <c r="F67" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G67" s="20" t="s">
+      <c r="G67" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H67" s="16"/>
@@ -16532,9 +16575,9 @@
         <v>98</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G68" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G68" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H68" s="16"/>
@@ -16562,9 +16605,9 @@
         <v>98</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="G69" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="G69" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H69" s="16"/>
@@ -16574,7 +16617,7 @@
       </c>
       <c r="K69" s="16"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" hidden="1">
       <c r="A70" s="47" t="s">
         <v>29</v>
       </c>
@@ -16588,11 +16631,11 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B70&amp;C70, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B70&amp;C70, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Heloísa Maria Beloni Insenha</v>
       </c>
-      <c r="E70" s="19" t="s">
-        <v>104</v>
+      <c r="E70" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F70" s="16"/>
-      <c r="G70" s="20" t="s">
+      <c r="G70" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H70" s="16"/>
@@ -16603,7 +16646,13 @@
       <c r="K70" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:G70" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Gustavo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G70">
     <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>

--- a/scripts/Monitoramento/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/scripts/Monitoramento/inputs/0 - GRS II/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29609"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_0677AFA57957B3E96D1EF781E4D67BF19FE61601" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BD292A4-6070-4583-8F0A-7960484A98BF}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_0677AFA56F4FFD8FFBED60D2FCEBCAC103330961" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6015AEFD-28FE-47E5-BA1C-3ACDD3170057}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="317">
   <si>
     <t>Formulário</t>
   </si>
@@ -408,12 +408,15 @@
     <t>10/04/2025, 15/05/2025</t>
   </si>
   <si>
+    <t>excluir ID 164  - irá excluir todas pelo menos é o que foi informado</t>
+  </si>
+  <si>
+    <t>Gabriela Fernanda Sandri</t>
+  </si>
+  <si>
     <t>excluir ID 164</t>
   </si>
   <si>
-    <t>Gabriela Fernanda Sandri</t>
-  </si>
-  <si>
     <t>Eduarda Rohden Donasolo</t>
   </si>
   <si>
@@ -505,6 +508,9 @@
   </si>
   <si>
     <t>Marlene R. Oliveira Dallacosta</t>
+  </si>
+  <si>
+    <t>09/12/2025</t>
   </si>
   <si>
     <t>Vitolor dos Santos Almeida</t>
@@ -844,6 +850,9 @@
     <t>16/04/2025, 30/05/2025</t>
   </si>
   <si>
+    <t>ID 203</t>
+  </si>
+  <si>
     <t>revisar empilhadeiras</t>
   </si>
   <si>
@@ -854,6 +863,9 @@
   </si>
   <si>
     <t xml:space="preserve">revisar valor das despesas com coleta, está o mesmo para ambas e só a seletiva, </t>
+  </si>
+  <si>
+    <t>15/12/2025</t>
   </si>
   <si>
     <t>03/04/2025</t>
@@ -897,6 +909,9 @@
   </si>
   <si>
     <t>apenas revisar docs</t>
+  </si>
+  <si>
+    <t>12/12/2025</t>
   </si>
   <si>
     <t>ID91</t>
@@ -1401,7 +1416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1463,6 +1478,10 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1543,9 +1562,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2296,57 +2312,57 @@
         <v>10</v>
       </c>
       <c r="AC1" s="4"/>
-      <c r="AD1" s="50" t="s">
+      <c r="AD1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="53"/>
+      <c r="AE1" s="54"/>
       <c r="AF1" s="4"/>
-      <c r="AG1" s="50" t="s">
+      <c r="AG1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="53"/>
-      <c r="AJ1" s="50" t="s">
+      <c r="AH1" s="54"/>
+      <c r="AJ1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AK1" s="53"/>
+      <c r="AK1" s="54"/>
     </row>
     <row r="2" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="24">
         <f ca="1">COUNTIF(AE2:AE56,"Enviado")</f>
         <v>47</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="25">
         <f ca="1">B2/SUM($B2,$D2,$F2,$H2)</f>
         <v>0.8545454545454545</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="24">
         <f ca="1">COUNTIF(AE2:AE56,"Atrasado")</f>
         <v>7</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="25">
         <f ca="1">D2/SUM($B2,$D2,$F2,$H2)</f>
         <v>0.12727272727272726</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="24">
         <f ca="1">COUNTIF(AE2:AE56,"Sem Técnico")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="25">
         <f ca="1">F2/SUM($B2,$D2,$F2,$H2)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="24">
         <f ca="1">COUNTIF(AE2:AE56,"Duplicado")</f>
         <v>1</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="25">
         <f ca="1">H2/SUM($B2,$D2,$F2,$H2)</f>
         <v>1.8181818181818181E-2</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="26">
         <f ca="1">SUM(B2,D2,F2,H2)</f>
         <v>55</v>
       </c>
@@ -2366,69 +2382,69 @@
         <v>0</v>
       </c>
       <c r="AC2" s="4"/>
-      <c r="AD2" s="22" t="str">
+      <c r="AD2" s="24" t="str">
         <f t="array" aca="1" ref="AD2:AD56" ca="1">_xlfn.UNIQUE(INDIRECT("'Form 1 - Município'!B2:B70"))</f>
         <v>Altônia</v>
       </c>
-      <c r="AE2" s="22" t="str">
+      <c r="AE2" s="24" t="str">
         <f ca="1">VLOOKUP(AD2,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF2" s="4"/>
-      <c r="AG2" s="22" t="str">
+      <c r="AG2" s="24" t="str">
         <f t="array" aca="1" ref="AG2:AG56" ca="1">_xlfn.UNIQUE(INDIRECT("'Form 2 - UVR'!B2:B70"))</f>
         <v>Altônia</v>
       </c>
-      <c r="AH2" s="22" t="str">
+      <c r="AH2" s="24" t="str">
         <f ca="1">VLOOKUP(AG2,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ2" s="22" t="str">
+      <c r="AJ2" s="24" t="str">
         <f t="array" aca="1" ref="AJ2:AJ56" ca="1">_xlfn.UNIQUE(INDIRECT("'Form 3 - Empreendimento'!B2:B70"))</f>
         <v>Altônia</v>
       </c>
-      <c r="AK2" s="22" t="str">
+      <c r="AK2" s="24" t="str">
         <f ca="1">VLOOKUP(AJ2,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="24">
         <f ca="1">COUNTIF(AH2:AH56,"Enviado")</f>
-        <v>46</v>
-      </c>
-      <c r="C3" s="23">
+        <v>47</v>
+      </c>
+      <c r="C3" s="25">
         <f ca="1">B3/SUM($B3,$D3,$F3,$H3)</f>
-        <v>0.83636363636363631</v>
-      </c>
-      <c r="D3" s="22">
+        <v>0.8545454545454545</v>
+      </c>
+      <c r="D3" s="24">
         <f ca="1">COUNTIF(AH2:AH56,"Atrasado")</f>
-        <v>7</v>
-      </c>
-      <c r="E3" s="23">
+        <v>6</v>
+      </c>
+      <c r="E3" s="25">
         <f ca="1">D3/SUM($B3,$D3,$F3,$H3)</f>
-        <v>0.12727272727272726</v>
-      </c>
-      <c r="F3" s="22">
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="F3" s="24">
         <f ca="1">COUNTIF(AH2:AH56,"Sem Técnico")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="25">
         <f ca="1">F3/SUM($B3,$D3,$F3,$H3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="24">
         <f ca="1">COUNTIF(AH2:AH56,"Duplicado")</f>
         <v>2</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="25">
         <f ca="1">H3/SUM($B3,$D3,$F3,$H3)</f>
         <v>3.6363636363636362E-2</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="26">
         <f ca="1">SUM(B3,D3,F3,H3)</f>
         <v>55</v>
       </c>
@@ -2437,80 +2453,80 @@
       </c>
       <c r="M3" s="6">
         <f ca="1">B3+H3</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3" s="6">
         <f ca="1">D3</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O3" s="6">
         <f ca="1">F3</f>
         <v>0</v>
       </c>
       <c r="AC3" s="4"/>
-      <c r="AD3" s="22" t="str">
+      <c r="AD3" s="24" t="str">
         <f ca="1"/>
         <v>Anahy</v>
       </c>
-      <c r="AE3" s="22" t="str">
+      <c r="AE3" s="24" t="str">
         <f ca="1">VLOOKUP(AD3,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF3" s="4"/>
-      <c r="AG3" s="22" t="str">
+      <c r="AG3" s="24" t="str">
         <f ca="1"/>
         <v>Anahy</v>
       </c>
-      <c r="AH3" s="22" t="str">
+      <c r="AH3" s="24" t="str">
         <f ca="1">VLOOKUP(AG3,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ3" s="22" t="str">
+      <c r="AJ3" s="24" t="str">
         <f ca="1"/>
         <v>Anahy</v>
       </c>
-      <c r="AK3" s="22" t="str">
+      <c r="AK3" s="24" t="str">
         <f ca="1">VLOOKUP(AJ3,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="24">
         <f ca="1">COUNTIF(AK2:AK56,"Enviado")</f>
-        <v>47</v>
-      </c>
-      <c r="C4" s="23">
+        <v>49</v>
+      </c>
+      <c r="C4" s="25">
         <f ca="1">B4/SUM($B4,$D4,$F4,$H4)</f>
-        <v>0.8545454545454545</v>
-      </c>
-      <c r="D4" s="22">
+        <v>0.89090909090909087</v>
+      </c>
+      <c r="D4" s="24">
         <f ca="1">COUNTIF(AK2:AK56,"Atrasado")</f>
-        <v>8</v>
-      </c>
-      <c r="E4" s="23">
+        <v>6</v>
+      </c>
+      <c r="E4" s="25">
         <f ca="1">D4/SUM($B4,$D4,$F4,$H4)</f>
-        <v>0.14545454545454545</v>
-      </c>
-      <c r="F4" s="22">
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="F4" s="24">
         <f ca="1">COUNTIF(AK2:AK56,"Sem Técnico")</f>
         <v>0</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="25">
         <f ca="1">F4/SUM($B4,$D4,$F4,$H4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="24">
         <f ca="1">COUNTIF(AK2:AK56,"Duplicado")</f>
         <v>0</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="25">
         <f ca="1">H4/SUM($B4,$D4,$F4,$H4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="26">
         <f ca="1">SUM(B4,D4,F4,H4)</f>
         <v>55</v>
       </c>
@@ -2519,106 +2535,106 @@
       </c>
       <c r="M4" s="6">
         <f ca="1">B4+H4</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N4" s="6">
         <f ca="1">D4</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O4" s="6">
         <f ca="1">F4</f>
         <v>0</v>
       </c>
       <c r="AC4" s="4"/>
-      <c r="AD4" s="22" t="str">
+      <c r="AD4" s="24" t="str">
         <f ca="1"/>
         <v>Assis Chateaubriand</v>
       </c>
-      <c r="AE4" s="22" t="str">
+      <c r="AE4" s="24" t="str">
         <f ca="1">VLOOKUP(AD4,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF4" s="4"/>
-      <c r="AG4" s="22" t="str">
+      <c r="AG4" s="24" t="str">
         <f ca="1"/>
         <v>Assis Chateaubriand</v>
       </c>
-      <c r="AH4" s="22" t="str">
+      <c r="AH4" s="24" t="str">
         <f ca="1">VLOOKUP(AG4,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ4" s="22" t="str">
+      <c r="AJ4" s="24" t="str">
         <f ca="1"/>
         <v>Assis Chateaubriand</v>
       </c>
-      <c r="AK4" s="22" t="str">
+      <c r="AK4" s="24" t="str">
         <f ca="1">VLOOKUP(AJ4,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="26">
         <f ca="1">SUM(B2:B4)</f>
-        <v>140</v>
-      </c>
-      <c r="C5" s="23">
+        <v>143</v>
+      </c>
+      <c r="C5" s="25">
         <f ca="1">B5/SUM($B5,$D5,$F5,$H5)</f>
-        <v>0.84848484848484851</v>
-      </c>
-      <c r="D5" s="24">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="D5" s="26">
         <f ca="1">SUM(D2:D4)</f>
-        <v>22</v>
-      </c>
-      <c r="E5" s="23">
+        <v>19</v>
+      </c>
+      <c r="E5" s="25">
         <f ca="1">D5/SUM($B5,$D5,$F5,$H5)</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F5" s="24">
+        <v>0.11515151515151516</v>
+      </c>
+      <c r="F5" s="26">
         <f ca="1">SUM(F2:F4)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="25">
         <f ca="1">F5/SUM($B5,$D5,$F5,$H5)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="26">
         <f ca="1">SUM(H2:H4)</f>
         <v>3</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="25">
         <f ca="1">H5/SUM($B5,$D5,$F5,$H5)</f>
         <v>1.8181818181818181E-2</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="26">
         <f ca="1">SUM(J2:J4)</f>
         <v>165</v>
       </c>
       <c r="AC5" s="4"/>
-      <c r="AD5" s="22" t="str">
+      <c r="AD5" s="24" t="str">
         <f ca="1"/>
         <v>Boa Vista da Aparecida</v>
       </c>
-      <c r="AE5" s="22" t="str">
+      <c r="AE5" s="24" t="str">
         <f ca="1">VLOOKUP(AD5,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF5" s="4"/>
-      <c r="AG5" s="22" t="str">
+      <c r="AG5" s="24" t="str">
         <f ca="1"/>
         <v>Boa Vista da Aparecida</v>
       </c>
-      <c r="AH5" s="22" t="str">
+      <c r="AH5" s="24" t="str">
         <f ca="1">VLOOKUP(AG5,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ5" s="22" t="str">
+      <c r="AJ5" s="24" t="str">
         <f ca="1"/>
         <v>Boa Vista da Aparecida</v>
       </c>
-      <c r="AK5" s="22" t="str">
+      <c r="AK5" s="24" t="str">
         <f ca="1">VLOOKUP(AJ5,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -2635,28 +2651,28 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="AC6" s="4"/>
-      <c r="AD6" s="22" t="str">
+      <c r="AD6" s="24" t="str">
         <f ca="1"/>
         <v>Braganey</v>
       </c>
-      <c r="AE6" s="22" t="str">
+      <c r="AE6" s="24" t="str">
         <f ca="1">VLOOKUP(AD6,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF6" s="4"/>
-      <c r="AG6" s="22" t="str">
+      <c r="AG6" s="24" t="str">
         <f ca="1"/>
         <v>Braganey</v>
       </c>
-      <c r="AH6" s="22" t="str">
+      <c r="AH6" s="24" t="str">
         <f ca="1">VLOOKUP(AG6,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ6" s="22" t="str">
+      <c r="AJ6" s="24" t="str">
         <f ca="1"/>
         <v>Braganey</v>
       </c>
-      <c r="AK6" s="22" t="str">
+      <c r="AK6" s="24" t="str">
         <f ca="1">VLOOKUP(AJ6,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -2673,28 +2689,28 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="AC7" s="4"/>
-      <c r="AD7" s="22" t="str">
+      <c r="AD7" s="24" t="str">
         <f ca="1"/>
         <v>Brasilândia do Sul</v>
       </c>
-      <c r="AE7" s="22" t="str">
+      <c r="AE7" s="24" t="str">
         <f ca="1">VLOOKUP(AD7,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="22" t="str">
+      <c r="AG7" s="24" t="str">
         <f ca="1"/>
         <v>Brasilândia do Sul</v>
       </c>
-      <c r="AH7" s="22" t="str">
+      <c r="AH7" s="24" t="str">
         <f ca="1">VLOOKUP(AG7,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ7" s="22" t="str">
+      <c r="AJ7" s="24" t="str">
         <f ca="1"/>
         <v>Brasilândia do Sul</v>
       </c>
-      <c r="AK7" s="22" t="str">
+      <c r="AK7" s="24" t="str">
         <f ca="1">VLOOKUP(AJ7,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -2711,30 +2727,30 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="AC8" s="4"/>
-      <c r="AD8" s="22" t="str">
+      <c r="AD8" s="24" t="str">
         <f ca="1"/>
         <v>Cafelândia</v>
       </c>
-      <c r="AE8" s="22" t="str">
+      <c r="AE8" s="24" t="str">
         <f ca="1">VLOOKUP(AD8,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF8" s="4"/>
-      <c r="AG8" s="22" t="str">
+      <c r="AG8" s="24" t="str">
         <f ca="1"/>
         <v>Cafelândia</v>
       </c>
-      <c r="AH8" s="22" t="str">
+      <c r="AH8" s="24" t="str">
         <f ca="1">VLOOKUP(AG8,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ8" s="22" t="str">
+      <c r="AJ8" s="24" t="str">
         <f ca="1"/>
         <v>Cafelândia</v>
       </c>
-      <c r="AK8" s="22" t="str">
+      <c r="AK8" s="24" t="str">
         <f ca="1">VLOOKUP(AJ8,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="18.75" customHeight="1">
@@ -2755,28 +2771,28 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="AC9" s="4"/>
-      <c r="AD9" s="22" t="str">
+      <c r="AD9" s="24" t="str">
         <f ca="1"/>
         <v>Campo Bonito</v>
       </c>
-      <c r="AE9" s="22" t="str">
+      <c r="AE9" s="24" t="str">
         <f ca="1">VLOOKUP(AD9,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
       <c r="AF9" s="4"/>
-      <c r="AG9" s="22" t="str">
+      <c r="AG9" s="24" t="str">
         <f ca="1"/>
         <v>Campo Bonito</v>
       </c>
-      <c r="AH9" s="22" t="str">
+      <c r="AH9" s="24" t="str">
         <f ca="1">VLOOKUP(AG9,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AJ9" s="22" t="str">
+      <c r="AJ9" s="24" t="str">
         <f ca="1"/>
         <v>Campo Bonito</v>
       </c>
-      <c r="AK9" s="22" t="str">
+      <c r="AK9" s="24" t="str">
         <f ca="1">VLOOKUP(AJ9,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
@@ -2785,13 +2801,13 @@
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="24">
         <f ca="1">COUNTIF(INDIRECT("'Form 1 - Município'!G2:G100"),"Sim")</f>
-        <v>57</v>
-      </c>
-      <c r="C10" s="23">
+        <v>56</v>
+      </c>
+      <c r="C10" s="25">
         <f ca="1">$B$10/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
-        <v>0.82608695652173914</v>
+        <v>0.81159420289855078</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -2801,28 +2817,28 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="AC10" s="4"/>
-      <c r="AD10" s="22" t="str">
+      <c r="AD10" s="24" t="str">
         <f ca="1"/>
         <v>Capitão Leonidas Marques</v>
       </c>
-      <c r="AE10" s="22" t="str">
+      <c r="AE10" s="24" t="str">
         <f ca="1">VLOOKUP(AD10,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF10" s="4"/>
-      <c r="AG10" s="22" t="str">
+      <c r="AG10" s="24" t="str">
         <f ca="1"/>
         <v>Capitão Leonidas Marques</v>
       </c>
-      <c r="AH10" s="22" t="str">
+      <c r="AH10" s="24" t="str">
         <f ca="1">VLOOKUP(AG10,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ10" s="22" t="str">
+      <c r="AJ10" s="24" t="str">
         <f ca="1"/>
         <v>Capitão Leonidas Marques</v>
       </c>
-      <c r="AK10" s="22" t="str">
+      <c r="AK10" s="24" t="str">
         <f ca="1">VLOOKUP(AJ10,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -2831,13 +2847,13 @@
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="24">
         <f ca="1">COUNTIF(INDIRECT("'Form 2 - UVR'!G2:G100"),"Sim")</f>
-        <v>49</v>
-      </c>
-      <c r="C11" s="23">
+        <v>50</v>
+      </c>
+      <c r="C11" s="25">
         <f ca="1">$B$11/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
-        <v>0.71014492753623193</v>
+        <v>0.72463768115942029</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2847,28 +2863,28 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="AC11" s="4"/>
-      <c r="AD11" s="22" t="str">
+      <c r="AD11" s="24" t="str">
         <f ca="1"/>
         <v>Cascavel</v>
       </c>
-      <c r="AE11" s="22" t="str">
+      <c r="AE11" s="24" t="str">
         <f ca="1">VLOOKUP(AD11,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
       <c r="AF11" s="4"/>
-      <c r="AG11" s="22" t="str">
+      <c r="AG11" s="24" t="str">
         <f ca="1"/>
         <v>Cascavel</v>
       </c>
-      <c r="AH11" s="22" t="str">
+      <c r="AH11" s="24" t="str">
         <f ca="1">VLOOKUP(AG11,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ11" s="22" t="str">
+      <c r="AJ11" s="24" t="str">
         <f ca="1"/>
         <v>Cascavel</v>
       </c>
-      <c r="AK11" s="22" t="str">
+      <c r="AK11" s="24" t="str">
         <f ca="1">VLOOKUP(AJ11,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -2877,11 +2893,11 @@
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="24">
         <f ca="1">COUNTIF(INDIRECT("'Form 3 - Empreendimento'!G2:G100"),"Sim")</f>
         <v>45</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="25">
         <f ca="1">$B$12/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>0.65217391304347827</v>
       </c>
@@ -2893,28 +2909,28 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="AC12" s="4"/>
-      <c r="AD12" s="22" t="str">
+      <c r="AD12" s="24" t="str">
         <f ca="1"/>
         <v>Catanduvas</v>
       </c>
-      <c r="AE12" s="22" t="str">
+      <c r="AE12" s="24" t="str">
         <f ca="1">VLOOKUP(AD12,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF12" s="4"/>
-      <c r="AG12" s="22" t="str">
+      <c r="AG12" s="24" t="str">
         <f ca="1"/>
         <v>Catanduvas</v>
       </c>
-      <c r="AH12" s="22" t="str">
+      <c r="AH12" s="24" t="str">
         <f ca="1">VLOOKUP(AG12,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ12" s="22" t="str">
+      <c r="AJ12" s="24" t="str">
         <f ca="1"/>
         <v>Catanduvas</v>
       </c>
-      <c r="AK12" s="22" t="str">
+      <c r="AK12" s="24" t="str">
         <f ca="1">VLOOKUP(AJ12,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -2931,28 +2947,28 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="AC13" s="4"/>
-      <c r="AD13" s="22" t="str">
+      <c r="AD13" s="24" t="str">
         <f ca="1"/>
         <v>Céu Azul</v>
       </c>
-      <c r="AE13" s="22" t="str">
+      <c r="AE13" s="24" t="str">
         <f ca="1">VLOOKUP(AD13,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF13" s="4"/>
-      <c r="AG13" s="22" t="str">
+      <c r="AG13" s="24" t="str">
         <f ca="1"/>
         <v>Céu Azul</v>
       </c>
-      <c r="AH13" s="22" t="str">
+      <c r="AH13" s="24" t="str">
         <f ca="1">VLOOKUP(AG13,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ13" s="22" t="str">
+      <c r="AJ13" s="24" t="str">
         <f ca="1"/>
         <v>Céu Azul</v>
       </c>
-      <c r="AK13" s="22" t="str">
+      <c r="AK13" s="24" t="str">
         <f ca="1">VLOOKUP(AJ13,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -2969,80 +2985,80 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="AC14" s="4"/>
-      <c r="AD14" s="22" t="str">
+      <c r="AD14" s="24" t="str">
         <f ca="1"/>
         <v>Corbélia</v>
       </c>
-      <c r="AE14" s="22" t="str">
+      <c r="AE14" s="24" t="str">
         <f ca="1">VLOOKUP(AD14,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
       <c r="AF14" s="4"/>
-      <c r="AG14" s="22" t="str">
+      <c r="AG14" s="24" t="str">
         <f ca="1"/>
         <v>Corbélia</v>
       </c>
-      <c r="AH14" s="22" t="str">
+      <c r="AH14" s="24" t="str">
         <f ca="1">VLOOKUP(AG14,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AJ14" s="22" t="str">
+      <c r="AJ14" s="24" t="str">
         <f ca="1"/>
         <v>Corbélia</v>
       </c>
-      <c r="AK14" s="22" t="str">
+      <c r="AK14" s="24" t="str">
         <f ca="1">VLOOKUP(AJ14,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="52" t="s">
+      <c r="C15" s="54"/>
+      <c r="D15" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="52" t="s">
+      <c r="E15" s="54"/>
+      <c r="F15" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="53"/>
+      <c r="G15" s="54"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="AC15" s="4"/>
-      <c r="AD15" s="22" t="str">
+      <c r="AD15" s="24" t="str">
         <f ca="1"/>
         <v>Diamante d'Oeste</v>
       </c>
-      <c r="AE15" s="22" t="str">
+      <c r="AE15" s="24" t="str">
         <f ca="1">VLOOKUP(AD15,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF15" s="4"/>
-      <c r="AG15" s="22" t="str">
+      <c r="AG15" s="24" t="str">
         <f ca="1"/>
         <v>Diamante do Sul</v>
       </c>
-      <c r="AH15" s="22" t="str">
+      <c r="AH15" s="24" t="str">
         <f ca="1">VLOOKUP(AG15,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ15" s="22" t="str">
+      <c r="AJ15" s="24" t="str">
         <f ca="1"/>
         <v>Diamante do Sul</v>
       </c>
-      <c r="AK15" s="22" t="str">
+      <c r="AK15" s="24" t="str">
         <f ca="1">VLOOKUP(AJ15,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A16" s="54"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
@@ -3065,57 +3081,57 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="AC16" s="4"/>
-      <c r="AD16" s="22" t="str">
+      <c r="AD16" s="24" t="str">
         <f ca="1"/>
         <v>Diamante do Sul</v>
       </c>
-      <c r="AE16" s="22" t="str">
+      <c r="AE16" s="24" t="str">
         <f ca="1">VLOOKUP(AD16,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF16" s="4"/>
-      <c r="AG16" s="22" t="str">
+      <c r="AG16" s="24" t="str">
         <f ca="1"/>
         <v>Diamante d'Oeste</v>
       </c>
-      <c r="AH16" s="22" t="str">
+      <c r="AH16" s="24" t="str">
         <f ca="1">VLOOKUP(AG16,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ16" s="22" t="str">
+      <c r="AJ16" s="24" t="str">
         <f ca="1"/>
         <v>Diamante d'Oeste</v>
       </c>
-      <c r="AK16" s="22" t="str">
+      <c r="AK16" s="24" t="str">
         <f ca="1">VLOOKUP(AJ16,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="24">
         <f t="array" aca="1" ref="B17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>5</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="25">
         <f ca="1">B17/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>7.2463768115942032E-2</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="24">
         <f t="array" aca="1" ref="D17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="25">
         <f ca="1">D17/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>0.11594202898550725</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="24">
         <f t="array" aca="1" ref="F17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>5</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="25">
         <f ca="1">F17/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>7.2463768115942032E-2</v>
       </c>
@@ -3123,115 +3139,115 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="AC17" s="4"/>
-      <c r="AD17" s="22" t="str">
+      <c r="AD17" s="24" t="str">
         <f ca="1"/>
         <v>Entre Rios do Oeste</v>
       </c>
-      <c r="AE17" s="22" t="str">
+      <c r="AE17" s="24" t="str">
         <f ca="1">VLOOKUP(AD17,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF17" s="4"/>
-      <c r="AG17" s="22" t="str">
+      <c r="AG17" s="24" t="str">
         <f ca="1"/>
         <v>Entre Rios do Oeste</v>
       </c>
-      <c r="AH17" s="22" t="str">
+      <c r="AH17" s="24" t="str">
         <f ca="1">VLOOKUP(AG17,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ17" s="22" t="str">
+      <c r="AJ17" s="24" t="str">
         <f ca="1"/>
         <v>Entre Rios do Oeste</v>
       </c>
-      <c r="AK17" s="22" t="str">
+      <c r="AK17" s="24" t="str">
         <f ca="1">VLOOKUP(AJ17,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="24">
         <f t="array" aca="1" ref="B18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>9</v>
-      </c>
-      <c r="C18" s="23">
+        <v>8</v>
+      </c>
+      <c r="C18" s="25">
         <f ca="1">B18/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="D18" s="22">
+        <v>0.11594202898550725</v>
+      </c>
+      <c r="D18" s="24">
         <f t="array" aca="1" ref="D18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="E18" s="25">
+        <f ca="1">D18/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="F18" s="24">
+        <f t="array" aca="1" ref="F18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>7</v>
       </c>
-      <c r="E18" s="23">
-        <f ca="1">D18/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
+      <c r="G18" s="25">
+        <f ca="1">F18/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>0.10144927536231885</v>
-      </c>
-      <c r="F18" s="22">
-        <f t="array" aca="1" ref="F18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>8</v>
-      </c>
-      <c r="G18" s="23">
-        <f ca="1">F18/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
-        <v>0.11594202898550725</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="4"/>
       <c r="AC18" s="4"/>
-      <c r="AD18" s="22" t="str">
+      <c r="AD18" s="24" t="str">
         <f ca="1"/>
         <v>Formosa do Oeste</v>
       </c>
-      <c r="AE18" s="22" t="str">
+      <c r="AE18" s="24" t="str">
         <f ca="1">VLOOKUP(AD18,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF18" s="4"/>
-      <c r="AG18" s="22" t="str">
+      <c r="AG18" s="24" t="str">
         <f ca="1"/>
         <v>Formosa do Oeste</v>
       </c>
-      <c r="AH18" s="22" t="str">
+      <c r="AH18" s="24" t="str">
         <f ca="1">VLOOKUP(AG18,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ18" s="22" t="str">
+      <c r="AJ18" s="24" t="str">
         <f ca="1"/>
         <v>Formosa do Oeste</v>
       </c>
-      <c r="AK18" s="22" t="str">
+      <c r="AK18" s="24" t="str">
         <f ca="1">VLOOKUP(AJ18,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="24">
         <f t="array" aca="1" ref="B19" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>10</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="25">
         <f ca="1">B19/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>0.14492753623188406</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="24">
         <f t="array" aca="1" ref="D19" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>2</v>
-      </c>
-      <c r="E19" s="23">
+        <v>4</v>
+      </c>
+      <c r="E19" s="25">
         <f ca="1">D19/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
-        <v>2.8985507246376812E-2</v>
-      </c>
-      <c r="F19" s="22">
+        <v>5.7971014492753624E-2</v>
+      </c>
+      <c r="F19" s="24">
         <f t="array" aca="1" ref="F19" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>2</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="25">
         <f ca="1">F19/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>2.8985507246376812E-2</v>
       </c>
@@ -3239,57 +3255,57 @@
       <c r="I19" s="8"/>
       <c r="J19" s="4"/>
       <c r="AC19" s="4"/>
-      <c r="AD19" s="22" t="str">
+      <c r="AD19" s="24" t="str">
         <f ca="1"/>
         <v>Foz do Iguaçu</v>
       </c>
-      <c r="AE19" s="22" t="str">
+      <c r="AE19" s="24" t="str">
         <f ca="1">VLOOKUP(AD19,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF19" s="4"/>
-      <c r="AG19" s="22" t="str">
+      <c r="AG19" s="24" t="str">
         <f ca="1"/>
         <v>Foz do Iguaçu</v>
       </c>
-      <c r="AH19" s="22" t="str">
+      <c r="AH19" s="24" t="str">
         <f ca="1">VLOOKUP(AG19,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ19" s="22" t="str">
+      <c r="AJ19" s="24" t="str">
         <f ca="1"/>
         <v>Foz do Iguaçu</v>
       </c>
-      <c r="AK19" s="22" t="str">
+      <c r="AK19" s="24" t="str">
         <f ca="1">VLOOKUP(AJ19,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="24">
         <f t="array" aca="1" ref="B20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>13</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="25">
         <f ca="1">B20/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>0.18840579710144928</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="24">
         <f t="array" aca="1" ref="D20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>12</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="25">
         <f ca="1">D20/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>0.17391304347826086</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="24">
         <f t="array" aca="1" ref="F20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>12</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="25">
         <f ca="1">F20/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>0.17391304347826086</v>
       </c>
@@ -3297,57 +3313,57 @@
       <c r="I20" s="8"/>
       <c r="J20" s="4"/>
       <c r="AC20" s="4"/>
-      <c r="AD20" s="22" t="str">
+      <c r="AD20" s="24" t="str">
         <f ca="1"/>
         <v>Francisco Alves</v>
       </c>
-      <c r="AE20" s="22" t="str">
+      <c r="AE20" s="24" t="str">
         <f ca="1">VLOOKUP(AD20,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
       <c r="AF20" s="4"/>
-      <c r="AG20" s="22" t="str">
+      <c r="AG20" s="24" t="str">
         <f ca="1"/>
         <v>Francisco Alves</v>
       </c>
-      <c r="AH20" s="22" t="str">
+      <c r="AH20" s="24" t="str">
         <f ca="1">VLOOKUP(AG20,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AJ20" s="22" t="str">
+      <c r="AJ20" s="24" t="str">
         <f ca="1"/>
         <v>Francisco Alves</v>
       </c>
-      <c r="AK20" s="22" t="str">
+      <c r="AK20" s="24" t="str">
         <f ca="1">VLOOKUP(AJ20,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="24">
         <f t="array" aca="1" ref="B21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>11</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="25">
         <f ca="1">B21/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>0.15942028985507245</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="24">
         <f t="array" aca="1" ref="D21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>10</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="25">
         <f ca="1">D21/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>0.14492753623188406</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="24">
         <f t="array" aca="1" ref="F21" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>10</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="25">
         <f ca="1">F21/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
         <v>0.14492753623188406</v>
       </c>
@@ -3355,172 +3371,172 @@
       <c r="I21" s="8"/>
       <c r="J21" s="4"/>
       <c r="AC21" s="4"/>
-      <c r="AD21" s="22" t="str">
+      <c r="AD21" s="24" t="str">
         <f ca="1"/>
         <v>Guaira</v>
       </c>
-      <c r="AE21" s="22" t="str">
+      <c r="AE21" s="24" t="str">
         <f ca="1">VLOOKUP(AD21,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF21" s="4"/>
-      <c r="AG21" s="22" t="str">
+      <c r="AG21" s="24" t="str">
         <f ca="1"/>
         <v>Guaira</v>
       </c>
-      <c r="AH21" s="22" t="str">
+      <c r="AH21" s="24" t="str">
         <f ca="1">VLOOKUP(AG21,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ21" s="22" t="str">
+      <c r="AJ21" s="24" t="str">
         <f ca="1"/>
         <v>Guaira</v>
       </c>
-      <c r="AK21" s="22" t="str">
+      <c r="AK21" s="24" t="str">
         <f ca="1">VLOOKUP(AJ21,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="24">
         <f t="array" aca="1" ref="B22" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A22) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>9</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="25">
         <f ca="1">B22/(COUNTA(INDIRECT("'Form 1 - Município'!B2:B70")))</f>
         <v>0.13043478260869565</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="24">
         <f t="array" aca="1" ref="D22" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A22) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v>10</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="25">
         <f ca="1">D22/(COUNTA(INDIRECT("'Form 2 - UVR'!B2:B70")))</f>
         <v>0.14492753623188406</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="24">
         <f t="array" aca="1" ref="F22" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A22) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
-        <v>8</v>
-      </c>
-      <c r="G22" s="23">
+        <v>9</v>
+      </c>
+      <c r="G22" s="25">
         <f ca="1">F22/(COUNTA(INDIRECT("'Form 3 - Empreendimento'!B2:B70")))</f>
-        <v>0.11594202898550725</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="4"/>
       <c r="AC22" s="4"/>
-      <c r="AD22" s="22" t="str">
+      <c r="AD22" s="24" t="str">
         <f ca="1"/>
         <v>Guaraniacu</v>
       </c>
-      <c r="AE22" s="22" t="str">
+      <c r="AE22" s="24" t="str">
         <f ca="1">VLOOKUP(AD22,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF22" s="4"/>
-      <c r="AG22" s="22" t="str">
+      <c r="AG22" s="24" t="str">
         <f ca="1"/>
         <v>Guaraniacu</v>
       </c>
-      <c r="AH22" s="22" t="str">
+      <c r="AH22" s="24" t="str">
         <f ca="1">VLOOKUP(AG22,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ22" s="22" t="str">
+      <c r="AJ22" s="24" t="str">
         <f ca="1"/>
         <v>Guaraniacu</v>
       </c>
-      <c r="AK22" s="22" t="str">
+      <c r="AK22" s="24" t="str">
         <f ca="1">VLOOKUP(AJ22,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="26">
         <f ca="1">SUM(B17:B22)</f>
-        <v>57</v>
-      </c>
-      <c r="C23" s="32">
+        <v>56</v>
+      </c>
+      <c r="C23" s="34">
         <f ca="1">SUM(C17:C22)</f>
-        <v>0.82608695652173914</v>
-      </c>
-      <c r="D23" s="24">
+        <v>0.81159420289855089</v>
+      </c>
+      <c r="D23" s="26">
         <f ca="1">SUM(D17:D22)</f>
-        <v>49</v>
-      </c>
-      <c r="E23" s="32">
+        <v>50</v>
+      </c>
+      <c r="E23" s="34">
         <f ca="1">SUM(E17:E22)</f>
-        <v>0.71014492753623182</v>
-      </c>
-      <c r="F23" s="24">
+        <v>0.72463768115942029</v>
+      </c>
+      <c r="F23" s="26">
         <f ca="1">SUM(F17:F22)</f>
         <v>45</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="34">
         <f ca="1">SUM(G17:G22)</f>
-        <v>0.65217391304347816</v>
+        <v>0.65217391304347827</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="AC23" s="4"/>
-      <c r="AD23" s="22" t="str">
+      <c r="AD23" s="24" t="str">
         <f ca="1"/>
         <v>Ibema</v>
       </c>
-      <c r="AE23" s="22" t="str">
+      <c r="AE23" s="24" t="str">
         <f ca="1">VLOOKUP(AD23,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF23" s="4"/>
-      <c r="AG23" s="22" t="str">
+      <c r="AG23" s="24" t="str">
         <f ca="1"/>
         <v>Ibema</v>
       </c>
-      <c r="AH23" s="22" t="str">
+      <c r="AH23" s="24" t="str">
         <f ca="1">VLOOKUP(AG23,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ23" s="22" t="str">
+      <c r="AJ23" s="24" t="str">
         <f ca="1"/>
         <v>Ibema</v>
       </c>
-      <c r="AK23" s="22" t="str">
+      <c r="AK23" s="24" t="str">
         <f ca="1">VLOOKUP(AJ23,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="24" spans="1:37">
       <c r="AC24" s="4"/>
-      <c r="AD24" s="22" t="str">
+      <c r="AD24" s="24" t="str">
         <f ca="1"/>
         <v>Iguatu</v>
       </c>
-      <c r="AE24" s="22" t="str">
+      <c r="AE24" s="24" t="str">
         <f ca="1">VLOOKUP(AD24,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF24" s="4"/>
-      <c r="AG24" s="22" t="str">
+      <c r="AG24" s="24" t="str">
         <f ca="1"/>
         <v>Iguatu</v>
       </c>
-      <c r="AH24" s="22" t="str">
+      <c r="AH24" s="24" t="str">
         <f ca="1">VLOOKUP(AG24,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ24" s="22" t="str">
+      <c r="AJ24" s="24" t="str">
         <f ca="1"/>
         <v>Iguatu</v>
       </c>
-      <c r="AK24" s="22" t="str">
+      <c r="AK24" s="24" t="str">
         <f ca="1">VLOOKUP(AJ24,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -3534,28 +3550,28 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="AC25" s="4"/>
-      <c r="AD25" s="22" t="str">
+      <c r="AD25" s="24" t="str">
         <f ca="1"/>
         <v>Iracema do Oeste</v>
       </c>
-      <c r="AE25" s="22" t="str">
+      <c r="AE25" s="24" t="str">
         <f ca="1">VLOOKUP(AD25,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF25" s="4"/>
-      <c r="AG25" s="22" t="str">
+      <c r="AG25" s="24" t="str">
         <f ca="1"/>
         <v>Iracema do Oeste</v>
       </c>
-      <c r="AH25" s="22" t="str">
+      <c r="AH25" s="24" t="str">
         <f ca="1">VLOOKUP(AG25,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ25" s="22" t="str">
+      <c r="AJ25" s="24" t="str">
         <f ca="1"/>
         <v>Iracema do Oeste</v>
       </c>
-      <c r="AK25" s="22" t="str">
+      <c r="AK25" s="24" t="str">
         <f ca="1">VLOOKUP(AJ25,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -3570,28 +3586,28 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="AC26" s="4"/>
-      <c r="AD26" s="22" t="str">
+      <c r="AD26" s="24" t="str">
         <f ca="1"/>
         <v>Itaipulândia</v>
       </c>
-      <c r="AE26" s="22" t="str">
+      <c r="AE26" s="24" t="str">
         <f ca="1">VLOOKUP(AD26,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF26" s="4"/>
-      <c r="AG26" s="22" t="str">
+      <c r="AG26" s="24" t="str">
         <f ca="1"/>
         <v>Itaipulândia</v>
       </c>
-      <c r="AH26" s="22" t="str">
+      <c r="AH26" s="24" t="str">
         <f ca="1">VLOOKUP(AG26,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ26" s="22" t="str">
+      <c r="AJ26" s="24" t="str">
         <f ca="1"/>
         <v>Itaipulândia</v>
       </c>
-      <c r="AK26" s="22" t="str">
+      <c r="AK26" s="24" t="str">
         <f ca="1">VLOOKUP(AJ26,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -3606,28 +3622,28 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="AC27" s="4"/>
-      <c r="AD27" s="22" t="str">
+      <c r="AD27" s="24" t="str">
         <f ca="1"/>
         <v>Jesuítas</v>
       </c>
-      <c r="AE27" s="22" t="str">
+      <c r="AE27" s="24" t="str">
         <f ca="1">VLOOKUP(AD27,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF27" s="4"/>
-      <c r="AG27" s="22" t="str">
+      <c r="AG27" s="24" t="str">
         <f ca="1"/>
         <v>Jesuítas</v>
       </c>
-      <c r="AH27" s="22" t="str">
+      <c r="AH27" s="24" t="str">
         <f ca="1">VLOOKUP(AG27,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AJ27" s="22" t="str">
+      <c r="AJ27" s="24" t="str">
         <f ca="1"/>
         <v>Jesuítas</v>
       </c>
-      <c r="AK27" s="22" t="str">
+      <c r="AK27" s="24" t="str">
         <f ca="1">VLOOKUP(AJ27,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -3642,28 +3658,28 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="AC28" s="4"/>
-      <c r="AD28" s="22" t="str">
+      <c r="AD28" s="24" t="str">
         <f ca="1"/>
         <v>Lindoeste</v>
       </c>
-      <c r="AE28" s="22" t="str">
+      <c r="AE28" s="24" t="str">
         <f ca="1">VLOOKUP(AD28,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
       <c r="AF28" s="4"/>
-      <c r="AG28" s="22" t="str">
+      <c r="AG28" s="24" t="str">
         <f ca="1"/>
         <v>Lindoeste</v>
       </c>
-      <c r="AH28" s="22" t="str">
+      <c r="AH28" s="24" t="str">
         <f ca="1">VLOOKUP(AG28,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AJ28" s="22" t="str">
+      <c r="AJ28" s="24" t="str">
         <f ca="1"/>
         <v>Lindoeste</v>
       </c>
-      <c r="AK28" s="22" t="str">
+      <c r="AK28" s="24" t="str">
         <f ca="1">VLOOKUP(AJ28,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
@@ -3678,28 +3694,28 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="AC29" s="4"/>
-      <c r="AD29" s="22" t="str">
+      <c r="AD29" s="24" t="str">
         <f ca="1"/>
         <v>Marechal Candido Rondon</v>
       </c>
-      <c r="AE29" s="22" t="str">
+      <c r="AE29" s="24" t="str">
         <f ca="1">VLOOKUP(AD29,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF29" s="4"/>
-      <c r="AG29" s="22" t="str">
+      <c r="AG29" s="24" t="str">
         <f ca="1"/>
         <v>Marechal Candido Rondon</v>
       </c>
-      <c r="AH29" s="22" t="str">
+      <c r="AH29" s="24" t="str">
         <f ca="1">VLOOKUP(AG29,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ29" s="22" t="str">
+      <c r="AJ29" s="24" t="str">
         <f ca="1"/>
         <v>Marechal Candido Rondon</v>
       </c>
-      <c r="AK29" s="22" t="str">
+      <c r="AK29" s="24" t="str">
         <f ca="1">VLOOKUP(AJ29,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -3714,28 +3730,28 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="AC30" s="4"/>
-      <c r="AD30" s="22" t="str">
+      <c r="AD30" s="24" t="str">
         <f ca="1"/>
         <v>Maripa</v>
       </c>
-      <c r="AE30" s="22" t="str">
+      <c r="AE30" s="24" t="str">
         <f ca="1">VLOOKUP(AD30,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF30" s="4"/>
-      <c r="AG30" s="22" t="str">
+      <c r="AG30" s="24" t="str">
         <f ca="1"/>
         <v>Maripa</v>
       </c>
-      <c r="AH30" s="22" t="str">
+      <c r="AH30" s="24" t="str">
         <f ca="1">VLOOKUP(AG30,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ30" s="22" t="str">
+      <c r="AJ30" s="24" t="str">
         <f ca="1"/>
         <v>Maripa</v>
       </c>
-      <c r="AK30" s="22" t="str">
+      <c r="AK30" s="24" t="str">
         <f ca="1">VLOOKUP(AJ30,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -3750,28 +3766,28 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="AC31" s="4"/>
-      <c r="AD31" s="22" t="str">
+      <c r="AD31" s="24" t="str">
         <f ca="1"/>
         <v>Matelândia</v>
       </c>
-      <c r="AE31" s="22" t="str">
+      <c r="AE31" s="24" t="str">
         <f ca="1">VLOOKUP(AD31,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF31" s="4"/>
-      <c r="AG31" s="22" t="str">
+      <c r="AG31" s="24" t="str">
         <f ca="1"/>
         <v>Matelândia</v>
       </c>
-      <c r="AH31" s="22" t="str">
+      <c r="AH31" s="24" t="str">
         <f ca="1">VLOOKUP(AG31,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ31" s="22" t="str">
+      <c r="AJ31" s="24" t="str">
         <f ca="1"/>
         <v>Matelândia</v>
       </c>
-      <c r="AK31" s="22" t="str">
+      <c r="AK31" s="24" t="str">
         <f ca="1">VLOOKUP(AJ31,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -3786,28 +3802,28 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="AC32" s="4"/>
-      <c r="AD32" s="22" t="str">
+      <c r="AD32" s="24" t="str">
         <f ca="1"/>
         <v>Medianeira</v>
       </c>
-      <c r="AE32" s="22" t="str">
+      <c r="AE32" s="24" t="str">
         <f ca="1">VLOOKUP(AD32,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF32" s="4"/>
-      <c r="AG32" s="22" t="str">
+      <c r="AG32" s="24" t="str">
         <f ca="1"/>
         <v>Medianeira</v>
       </c>
-      <c r="AH32" s="22" t="str">
+      <c r="AH32" s="24" t="str">
         <f ca="1">VLOOKUP(AG32,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ32" s="22" t="str">
+      <c r="AJ32" s="24" t="str">
         <f ca="1"/>
         <v>Medianeira</v>
       </c>
-      <c r="AK32" s="22" t="str">
+      <c r="AK32" s="24" t="str">
         <f ca="1">VLOOKUP(AJ32,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -3822,28 +3838,28 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="AC33" s="4"/>
-      <c r="AD33" s="22" t="str">
+      <c r="AD33" s="24" t="str">
         <f ca="1"/>
         <v>Mercedes</v>
       </c>
-      <c r="AE33" s="22" t="str">
+      <c r="AE33" s="24" t="str">
         <f ca="1">VLOOKUP(AD33,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF33" s="4"/>
-      <c r="AG33" s="22" t="str">
+      <c r="AG33" s="24" t="str">
         <f ca="1"/>
         <v>Mercedes</v>
       </c>
-      <c r="AH33" s="22" t="str">
+      <c r="AH33" s="24" t="str">
         <f ca="1">VLOOKUP(AG33,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ33" s="22" t="str">
+      <c r="AJ33" s="24" t="str">
         <f ca="1"/>
         <v>Mercedes</v>
       </c>
-      <c r="AK33" s="22" t="str">
+      <c r="AK33" s="24" t="str">
         <f ca="1">VLOOKUP(AJ33,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -3858,28 +3874,28 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="AC34" s="4"/>
-      <c r="AD34" s="22" t="str">
+      <c r="AD34" s="24" t="str">
         <f ca="1"/>
         <v>Missal</v>
       </c>
-      <c r="AE34" s="22" t="str">
+      <c r="AE34" s="24" t="str">
         <f ca="1">VLOOKUP(AD34,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF34" s="4"/>
-      <c r="AG34" s="22" t="str">
+      <c r="AG34" s="24" t="str">
         <f ca="1"/>
         <v>Missal</v>
       </c>
-      <c r="AH34" s="22" t="str">
+      <c r="AH34" s="24" t="str">
         <f ca="1">VLOOKUP(AG34,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ34" s="22" t="str">
+      <c r="AJ34" s="24" t="str">
         <f ca="1"/>
         <v>Missal</v>
       </c>
-      <c r="AK34" s="22" t="str">
+      <c r="AK34" s="24" t="str">
         <f ca="1">VLOOKUP(AJ34,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -3893,28 +3909,28 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="AC35" s="4"/>
-      <c r="AD35" s="22" t="str">
+      <c r="AD35" s="24" t="str">
         <f ca="1"/>
         <v>Mundo Novo</v>
       </c>
-      <c r="AE35" s="22" t="str">
+      <c r="AE35" s="24" t="str">
         <f ca="1">VLOOKUP(AD35,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF35" s="4"/>
-      <c r="AG35" s="22" t="str">
+      <c r="AG35" s="24" t="str">
         <f ca="1"/>
         <v>Mundo Novo</v>
       </c>
-      <c r="AH35" s="22" t="str">
+      <c r="AH35" s="24" t="str">
         <f ca="1">VLOOKUP(AG35,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
-      <c r="AJ35" s="22" t="str">
+      <c r="AJ35" s="24" t="str">
         <f ca="1"/>
         <v>Mundo Novo</v>
       </c>
-      <c r="AK35" s="22" t="str">
+      <c r="AK35" s="24" t="str">
         <f ca="1">VLOOKUP(AJ35,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
@@ -3928,588 +3944,588 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="AC36" s="4"/>
-      <c r="AD36" s="22" t="str">
+      <c r="AD36" s="24" t="str">
         <f ca="1"/>
         <v>Nova Aurora</v>
       </c>
-      <c r="AE36" s="22" t="str">
+      <c r="AE36" s="24" t="str">
         <f ca="1">VLOOKUP(AD36,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF36" s="4"/>
-      <c r="AG36" s="22" t="str">
+      <c r="AG36" s="24" t="str">
         <f ca="1"/>
         <v>Nova Aurora</v>
       </c>
-      <c r="AH36" s="22" t="str">
+      <c r="AH36" s="24" t="str">
         <f ca="1">VLOOKUP(AG36,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Duplicado</v>
       </c>
-      <c r="AJ36" s="22" t="str">
+      <c r="AJ36" s="24" t="str">
         <f ca="1"/>
         <v>Nova Aurora</v>
       </c>
-      <c r="AK36" s="22" t="str">
+      <c r="AK36" s="24" t="str">
         <f ca="1">VLOOKUP(AJ36,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="37" spans="1:37">
       <c r="AC37" s="4"/>
-      <c r="AD37" s="22" t="str">
+      <c r="AD37" s="24" t="str">
         <f ca="1"/>
         <v>Nova Santa Rosa</v>
       </c>
-      <c r="AE37" s="22" t="str">
+      <c r="AE37" s="24" t="str">
         <f ca="1">VLOOKUP(AD37,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF37" s="4"/>
-      <c r="AG37" s="22" t="str">
+      <c r="AG37" s="24" t="str">
         <f ca="1"/>
         <v>Nova Santa Rosa</v>
       </c>
-      <c r="AH37" s="22" t="str">
+      <c r="AH37" s="24" t="str">
         <f ca="1">VLOOKUP(AG37,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ37" s="22" t="str">
+      <c r="AJ37" s="24" t="str">
         <f ca="1"/>
         <v>Nova Santa Rosa</v>
       </c>
-      <c r="AK37" s="22" t="str">
+      <c r="AK37" s="24" t="str">
         <f ca="1">VLOOKUP(AJ37,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="38" spans="1:37">
       <c r="AC38" s="4"/>
-      <c r="AD38" s="22" t="str">
+      <c r="AD38" s="24" t="str">
         <f ca="1"/>
         <v>Ouro Verde do Oeste</v>
       </c>
-      <c r="AE38" s="22" t="str">
+      <c r="AE38" s="24" t="str">
         <f ca="1">VLOOKUP(AD38,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF38" s="4"/>
-      <c r="AG38" s="22" t="str">
+      <c r="AG38" s="24" t="str">
         <f ca="1"/>
         <v>Ouro Verde do Oeste</v>
       </c>
-      <c r="AH38" s="22" t="str">
+      <c r="AH38" s="24" t="str">
         <f ca="1">VLOOKUP(AG38,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ38" s="22" t="str">
+      <c r="AJ38" s="24" t="str">
         <f ca="1"/>
         <v>Ouro Verde do Oeste</v>
       </c>
-      <c r="AK38" s="22" t="str">
+      <c r="AK38" s="24" t="str">
         <f ca="1">VLOOKUP(AJ38,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="39" spans="1:37">
       <c r="AC39" s="4"/>
-      <c r="AD39" s="22" t="str">
+      <c r="AD39" s="24" t="str">
         <f ca="1"/>
         <v>Palotina</v>
       </c>
-      <c r="AE39" s="22" t="str">
+      <c r="AE39" s="24" t="str">
         <f ca="1">VLOOKUP(AD39,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF39" s="4"/>
-      <c r="AG39" s="22" t="str">
+      <c r="AG39" s="24" t="str">
         <f ca="1"/>
         <v>Palotina</v>
       </c>
-      <c r="AH39" s="22" t="str">
+      <c r="AH39" s="24" t="str">
         <f ca="1">VLOOKUP(AG39,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ39" s="22" t="str">
+      <c r="AJ39" s="24" t="str">
         <f ca="1"/>
         <v>Palotina</v>
       </c>
-      <c r="AK39" s="22" t="str">
+      <c r="AK39" s="24" t="str">
         <f ca="1">VLOOKUP(AJ39,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="40" spans="1:37">
       <c r="AC40" s="4"/>
-      <c r="AD40" s="22" t="str">
+      <c r="AD40" s="24" t="str">
         <f ca="1"/>
         <v>Pato Bragado</v>
       </c>
-      <c r="AE40" s="22" t="str">
+      <c r="AE40" s="24" t="str">
         <f ca="1">VLOOKUP(AD40,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF40" s="4"/>
-      <c r="AG40" s="22" t="str">
+      <c r="AG40" s="24" t="str">
         <f ca="1"/>
         <v>Pato Bragado</v>
       </c>
-      <c r="AH40" s="22" t="str">
+      <c r="AH40" s="24" t="str">
         <f ca="1">VLOOKUP(AG40,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ40" s="22" t="str">
+      <c r="AJ40" s="24" t="str">
         <f ca="1"/>
         <v>Pato Bragado</v>
       </c>
-      <c r="AK40" s="22" t="str">
+      <c r="AK40" s="24" t="str">
         <f ca="1">VLOOKUP(AJ40,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="41" spans="1:37">
       <c r="AC41" s="4"/>
-      <c r="AD41" s="22" t="str">
+      <c r="AD41" s="24" t="str">
         <f ca="1"/>
         <v>Quatro Pontes</v>
       </c>
-      <c r="AE41" s="22" t="str">
+      <c r="AE41" s="24" t="str">
         <f ca="1">VLOOKUP(AD41,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF41" s="4"/>
-      <c r="AG41" s="22" t="str">
+      <c r="AG41" s="24" t="str">
         <f ca="1"/>
         <v>Quatro Pontes</v>
       </c>
-      <c r="AH41" s="22" t="str">
+      <c r="AH41" s="24" t="str">
         <f ca="1">VLOOKUP(AG41,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ41" s="22" t="str">
+      <c r="AJ41" s="24" t="str">
         <f ca="1"/>
         <v>Quatro Pontes</v>
       </c>
-      <c r="AK41" s="22" t="str">
+      <c r="AK41" s="24" t="str">
         <f ca="1">VLOOKUP(AJ41,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="42" spans="1:37">
       <c r="AC42" s="4"/>
-      <c r="AD42" s="22" t="str">
+      <c r="AD42" s="24" t="str">
         <f ca="1"/>
         <v>Ramilândia</v>
       </c>
-      <c r="AE42" s="22" t="str">
+      <c r="AE42" s="24" t="str">
         <f ca="1">VLOOKUP(AD42,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF42" s="4"/>
-      <c r="AG42" s="22" t="str">
+      <c r="AG42" s="24" t="str">
         <f ca="1"/>
         <v>Ramilândia</v>
       </c>
-      <c r="AH42" s="22" t="str">
+      <c r="AH42" s="24" t="str">
         <f ca="1">VLOOKUP(AG42,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
-        <v>Atrasado</v>
-      </c>
-      <c r="AJ42" s="22" t="str">
+        <v>Enviado</v>
+      </c>
+      <c r="AJ42" s="24" t="str">
         <f ca="1"/>
         <v>Ramilândia</v>
       </c>
-      <c r="AK42" s="22" t="str">
+      <c r="AK42" s="24" t="str">
         <f ca="1">VLOOKUP(AJ42,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
     </row>
     <row r="43" spans="1:37">
       <c r="AC43" s="4"/>
-      <c r="AD43" s="22" t="str">
+      <c r="AD43" s="24" t="str">
         <f ca="1"/>
         <v>Santa Helena</v>
       </c>
-      <c r="AE43" s="22" t="str">
+      <c r="AE43" s="24" t="str">
         <f ca="1">VLOOKUP(AD43,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF43" s="4"/>
-      <c r="AG43" s="22" t="str">
+      <c r="AG43" s="24" t="str">
         <f ca="1"/>
         <v>Santa Helena</v>
       </c>
-      <c r="AH43" s="22" t="str">
+      <c r="AH43" s="24" t="str">
         <f ca="1">VLOOKUP(AG43,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ43" s="22" t="str">
+      <c r="AJ43" s="24" t="str">
         <f ca="1"/>
         <v>Santa Helena</v>
       </c>
-      <c r="AK43" s="22" t="str">
+      <c r="AK43" s="24" t="str">
         <f ca="1">VLOOKUP(AJ43,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="44" spans="1:37">
       <c r="AC44" s="4"/>
-      <c r="AD44" s="22" t="str">
+      <c r="AD44" s="24" t="str">
         <f ca="1"/>
         <v>Santa Lúcia</v>
       </c>
-      <c r="AE44" s="22" t="str">
+      <c r="AE44" s="24" t="str">
         <f ca="1">VLOOKUP(AD44,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
       <c r="AF44" s="4"/>
-      <c r="AG44" s="22" t="str">
+      <c r="AG44" s="24" t="str">
         <f ca="1"/>
         <v>Santa Lúcia</v>
       </c>
-      <c r="AH44" s="22" t="str">
+      <c r="AH44" s="24" t="str">
         <f ca="1">VLOOKUP(AG44,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ44" s="22" t="str">
+      <c r="AJ44" s="24" t="str">
         <f ca="1"/>
         <v>Santa Lúcia</v>
       </c>
-      <c r="AK44" s="22" t="str">
+      <c r="AK44" s="24" t="str">
         <f ca="1">VLOOKUP(AJ44,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
     </row>
     <row r="45" spans="1:37">
       <c r="AC45" s="4"/>
-      <c r="AD45" s="22" t="str">
+      <c r="AD45" s="24" t="str">
         <f ca="1"/>
         <v>Santa Tereza do Oeste</v>
       </c>
-      <c r="AE45" s="22" t="str">
+      <c r="AE45" s="24" t="str">
         <f ca="1">VLOOKUP(AD45,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF45" s="4"/>
-      <c r="AG45" s="22" t="str">
+      <c r="AG45" s="24" t="str">
         <f ca="1"/>
         <v>Santa Tereza do Oeste</v>
       </c>
-      <c r="AH45" s="22" t="str">
+      <c r="AH45" s="24" t="str">
         <f ca="1">VLOOKUP(AG45,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ45" s="22" t="str">
+      <c r="AJ45" s="24" t="str">
         <f ca="1"/>
         <v>Santa Tereza do Oeste</v>
       </c>
-      <c r="AK45" s="22" t="str">
+      <c r="AK45" s="24" t="str">
         <f ca="1">VLOOKUP(AJ45,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="46" spans="1:37">
       <c r="AC46" s="4"/>
-      <c r="AD46" s="22" t="str">
+      <c r="AD46" s="24" t="str">
         <f ca="1"/>
         <v>Santa Terezinha de Itaipu</v>
       </c>
-      <c r="AE46" s="22" t="str">
+      <c r="AE46" s="24" t="str">
         <f ca="1">VLOOKUP(AD46,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF46" s="4"/>
-      <c r="AG46" s="22" t="str">
+      <c r="AG46" s="24" t="str">
         <f ca="1"/>
         <v>Santa Terezinha de Itaipu</v>
       </c>
-      <c r="AH46" s="22" t="str">
+      <c r="AH46" s="24" t="str">
         <f ca="1">VLOOKUP(AG46,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ46" s="22" t="str">
+      <c r="AJ46" s="24" t="str">
         <f ca="1"/>
         <v>Santa Terezinha de Itaipu</v>
       </c>
-      <c r="AK46" s="22" t="str">
+      <c r="AK46" s="24" t="str">
         <f ca="1">VLOOKUP(AJ46,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="47" spans="1:37">
       <c r="AC47" s="4"/>
-      <c r="AD47" s="22" t="str">
+      <c r="AD47" s="24" t="str">
         <f ca="1"/>
         <v>São Jose das Palmeiras</v>
       </c>
-      <c r="AE47" s="22" t="str">
+      <c r="AE47" s="24" t="str">
         <f ca="1">VLOOKUP(AD47,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF47" s="4"/>
-      <c r="AG47" s="22" t="str">
+      <c r="AG47" s="24" t="str">
         <f ca="1"/>
         <v>São Jose das Palmeiras</v>
       </c>
-      <c r="AH47" s="22" t="str">
+      <c r="AH47" s="24" t="str">
         <f ca="1">VLOOKUP(AG47,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ47" s="22" t="str">
+      <c r="AJ47" s="24" t="str">
         <f ca="1"/>
         <v>São Jose das Palmeiras</v>
       </c>
-      <c r="AK47" s="22" t="str">
+      <c r="AK47" s="24" t="str">
         <f ca="1">VLOOKUP(AJ47,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="48" spans="1:37">
       <c r="AC48" s="4"/>
-      <c r="AD48" s="22" t="str">
+      <c r="AD48" s="24" t="str">
         <f ca="1"/>
         <v>São Miguel do Iguaçu</v>
       </c>
-      <c r="AE48" s="22" t="str">
+      <c r="AE48" s="24" t="str">
         <f ca="1">VLOOKUP(AD48,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF48" s="4"/>
-      <c r="AG48" s="22" t="str">
+      <c r="AG48" s="24" t="str">
         <f ca="1"/>
         <v>São Miguel do Iguaçu</v>
       </c>
-      <c r="AH48" s="22" t="str">
+      <c r="AH48" s="24" t="str">
         <f ca="1">VLOOKUP(AG48,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ48" s="22" t="str">
+      <c r="AJ48" s="24" t="str">
         <f ca="1"/>
         <v>São Miguel do Iguaçu</v>
       </c>
-      <c r="AK48" s="22" t="str">
+      <c r="AK48" s="24" t="str">
         <f ca="1">VLOOKUP(AJ48,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="49" spans="29:37">
       <c r="AC49" s="4"/>
-      <c r="AD49" s="22" t="str">
+      <c r="AD49" s="24" t="str">
         <f ca="1"/>
         <v>São Pedro do Iguaçu</v>
       </c>
-      <c r="AE49" s="22" t="str">
+      <c r="AE49" s="24" t="str">
         <f ca="1">VLOOKUP(AD49,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF49" s="4"/>
-      <c r="AG49" s="22" t="str">
+      <c r="AG49" s="24" t="str">
         <f ca="1"/>
         <v>São Pedro do Iguaçu</v>
       </c>
-      <c r="AH49" s="22" t="str">
+      <c r="AH49" s="24" t="str">
         <f ca="1">VLOOKUP(AG49,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ49" s="22" t="str">
+      <c r="AJ49" s="24" t="str">
         <f ca="1"/>
         <v>São Pedro do Iguaçu</v>
       </c>
-      <c r="AK49" s="22" t="str">
+      <c r="AK49" s="24" t="str">
         <f ca="1">VLOOKUP(AJ49,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="50" spans="29:37">
       <c r="AC50" s="4"/>
-      <c r="AD50" s="22" t="str">
+      <c r="AD50" s="24" t="str">
         <f ca="1"/>
         <v>Serranopolis do Iguaçu</v>
       </c>
-      <c r="AE50" s="22" t="str">
+      <c r="AE50" s="24" t="str">
         <f ca="1">VLOOKUP(AD50,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF50" s="4"/>
-      <c r="AG50" s="22" t="str">
+      <c r="AG50" s="24" t="str">
         <f ca="1"/>
         <v>Serranopolis do Iguaçu</v>
       </c>
-      <c r="AH50" s="22" t="str">
+      <c r="AH50" s="24" t="str">
         <f ca="1">VLOOKUP(AG50,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ50" s="22" t="str">
+      <c r="AJ50" s="24" t="str">
         <f ca="1"/>
         <v>Serranopolis do Iguaçu</v>
       </c>
-      <c r="AK50" s="22" t="str">
+      <c r="AK50" s="24" t="str">
         <f ca="1">VLOOKUP(AJ50,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="51" spans="29:37">
       <c r="AC51" s="4"/>
-      <c r="AD51" s="22" t="str">
+      <c r="AD51" s="24" t="str">
         <f ca="1"/>
         <v>Terra Roxa</v>
       </c>
-      <c r="AE51" s="22" t="str">
+      <c r="AE51" s="24" t="str">
         <f ca="1">VLOOKUP(AD51,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF51" s="4"/>
-      <c r="AG51" s="22" t="str">
+      <c r="AG51" s="24" t="str">
         <f ca="1"/>
         <v>Terra Roxa</v>
       </c>
-      <c r="AH51" s="22" t="str">
+      <c r="AH51" s="24" t="str">
         <f ca="1">VLOOKUP(AG51,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ51" s="22" t="str">
+      <c r="AJ51" s="24" t="str">
         <f ca="1"/>
         <v>Terra Roxa</v>
       </c>
-      <c r="AK51" s="22" t="str">
+      <c r="AK51" s="24" t="str">
         <f ca="1">VLOOKUP(AJ51,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="52" spans="29:37">
       <c r="AC52" s="4"/>
-      <c r="AD52" s="22" t="str">
+      <c r="AD52" s="24" t="str">
         <f ca="1"/>
         <v>Toledo</v>
       </c>
-      <c r="AE52" s="22" t="str">
+      <c r="AE52" s="24" t="str">
         <f ca="1">VLOOKUP(AD52,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF52" s="4"/>
-      <c r="AG52" s="22" t="str">
+      <c r="AG52" s="24" t="str">
         <f ca="1"/>
         <v>Toledo</v>
       </c>
-      <c r="AH52" s="22" t="str">
+      <c r="AH52" s="24" t="str">
         <f ca="1">VLOOKUP(AG52,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ52" s="22" t="str">
+      <c r="AJ52" s="24" t="str">
         <f ca="1"/>
         <v>Toledo</v>
       </c>
-      <c r="AK52" s="22" t="str">
+      <c r="AK52" s="24" t="str">
         <f ca="1">VLOOKUP(AJ52,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="53" spans="29:37">
       <c r="AC53" s="4"/>
-      <c r="AD53" s="22" t="str">
+      <c r="AD53" s="24" t="str">
         <f ca="1"/>
         <v>Tres Barras do Parana</v>
       </c>
-      <c r="AE53" s="22" t="str">
+      <c r="AE53" s="24" t="str">
         <f ca="1">VLOOKUP(AD53,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF53" s="4"/>
-      <c r="AG53" s="22" t="str">
+      <c r="AG53" s="24" t="str">
         <f ca="1"/>
         <v>Tres Barras do Parana</v>
       </c>
-      <c r="AH53" s="22" t="str">
+      <c r="AH53" s="24" t="str">
         <f ca="1">VLOOKUP(AG53,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ53" s="22" t="str">
+      <c r="AJ53" s="24" t="str">
         <f ca="1"/>
         <v>Tres Barras do Parana</v>
       </c>
-      <c r="AK53" s="22" t="str">
+      <c r="AK53" s="24" t="str">
         <f ca="1">VLOOKUP(AJ53,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="54" spans="29:37">
       <c r="AC54" s="4"/>
-      <c r="AD54" s="22" t="str">
+      <c r="AD54" s="24" t="str">
         <f ca="1"/>
         <v>Tupassi</v>
       </c>
-      <c r="AE54" s="22" t="str">
+      <c r="AE54" s="24" t="str">
         <f ca="1">VLOOKUP(AD54,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
       <c r="AF54" s="4"/>
-      <c r="AG54" s="22" t="str">
+      <c r="AG54" s="24" t="str">
         <f ca="1"/>
         <v>Tupassi</v>
       </c>
-      <c r="AH54" s="22" t="str">
+      <c r="AH54" s="24" t="str">
         <f ca="1">VLOOKUP(AG54,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ54" s="22" t="str">
+      <c r="AJ54" s="24" t="str">
         <f ca="1"/>
         <v>Tupassi</v>
       </c>
-      <c r="AK54" s="22" t="str">
+      <c r="AK54" s="24" t="str">
         <f ca="1">VLOOKUP(AJ54,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="55" spans="29:37">
       <c r="AC55" s="4"/>
-      <c r="AD55" s="22" t="str">
+      <c r="AD55" s="24" t="str">
         <f ca="1"/>
         <v>Ubirata</v>
       </c>
-      <c r="AE55" s="22" t="str">
+      <c r="AE55" s="24" t="str">
         <f ca="1">VLOOKUP(AD55,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
       <c r="AF55" s="4"/>
-      <c r="AG55" s="22" t="str">
+      <c r="AG55" s="24" t="str">
         <f ca="1"/>
         <v>Ubirata</v>
       </c>
-      <c r="AH55" s="22" t="str">
+      <c r="AH55" s="24" t="str">
         <f ca="1">VLOOKUP(AG55,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
-      <c r="AJ55" s="22" t="str">
+      <c r="AJ55" s="24" t="str">
         <f ca="1"/>
         <v>Ubirata</v>
       </c>
-      <c r="AK55" s="22" t="str">
+      <c r="AK55" s="24" t="str">
         <f ca="1">VLOOKUP(AJ55,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Enviado</v>
       </c>
     </row>
     <row r="56" spans="29:37">
       <c r="AC56" s="4"/>
-      <c r="AD56" s="22" t="str">
+      <c r="AD56" s="24" t="str">
         <f ca="1"/>
         <v>Vera Cruz do Oeste</v>
       </c>
-      <c r="AE56" s="22" t="str">
+      <c r="AE56" s="24" t="str">
         <f ca="1">VLOOKUP(AD56,INDIRECT("'Form 1 - Município'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
       <c r="AF56" s="4"/>
-      <c r="AG56" s="22" t="str">
+      <c r="AG56" s="24" t="str">
         <f ca="1"/>
         <v>Vera Cruz do Oeste</v>
       </c>
-      <c r="AH56" s="22" t="str">
+      <c r="AH56" s="24" t="str">
         <f ca="1">VLOOKUP(AG56,INDIRECT("'Form 2 - UVR'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
-      <c r="AJ56" s="22" t="str">
+      <c r="AJ56" s="24" t="str">
         <f ca="1"/>
         <v>Vera Cruz do Oeste</v>
       </c>
-      <c r="AK56" s="22" t="str">
+      <c r="AK56" s="24" t="str">
         <f ca="1">VLOOKUP(AJ56,INDIRECT("'Form 3 - Empreendimento'!$B$2:$E$70"),4,FALSE)</f>
         <v>Atrasado</v>
       </c>
@@ -4536,9 +4552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4555,7 +4569,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -4575,13 +4589,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="24">
         <v>1</v>
       </c>
       <c r="D2" s="11" t="str">
@@ -4652,13 +4666,13 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="24">
         <v>1</v>
       </c>
       <c r="D3" s="11" t="str">
@@ -4729,13 +4743,13 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="24">
         <v>1</v>
       </c>
       <c r="D4" s="11" t="str">
@@ -4806,13 +4820,13 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="24">
         <v>1</v>
       </c>
       <c r="D5" s="11" t="str">
@@ -4883,13 +4897,13 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="24">
         <v>1</v>
       </c>
       <c r="D6" s="11" t="str">
@@ -4960,13 +4974,13 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="24">
         <v>1</v>
       </c>
       <c r="D7" s="11" t="str">
@@ -5037,13 +5051,13 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="24">
         <v>1</v>
       </c>
       <c r="D8" s="11" t="str">
@@ -5114,13 +5128,13 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="24">
         <v>1</v>
       </c>
       <c r="D9" s="11" t="str">
@@ -5191,13 +5205,13 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="24">
         <v>1</v>
       </c>
       <c r="D10" s="11" t="str">
@@ -5268,13 +5282,13 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="24">
         <v>1</v>
       </c>
       <c r="D11" s="11" t="str">
@@ -5345,13 +5359,13 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="24">
         <v>1</v>
       </c>
       <c r="D12" s="11" t="str">
@@ -5445,10 +5459,10 @@
       <c r="A15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="24">
         <v>1</v>
       </c>
       <c r="D15" s="11" t="str">
@@ -5522,10 +5536,10 @@
       <c r="A16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="24">
         <v>1</v>
       </c>
       <c r="D16" s="11" t="str">
@@ -5599,10 +5613,10 @@
       <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="24">
         <v>1</v>
       </c>
       <c r="D17" s="11" t="str">
@@ -5676,10 +5690,10 @@
       <c r="A18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="24">
         <v>1</v>
       </c>
       <c r="D18" s="11" t="str">
@@ -5753,10 +5767,10 @@
       <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="24">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="str">
@@ -5830,10 +5844,10 @@
       <c r="A20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="24">
         <v>1</v>
       </c>
       <c r="D20" s="11" t="str">
@@ -5907,10 +5921,10 @@
       <c r="A21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="24">
         <v>1</v>
       </c>
       <c r="D21" s="11" t="str">
@@ -5984,10 +5998,10 @@
       <c r="A22" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="24">
         <v>1</v>
       </c>
       <c r="D22" s="11" t="str">
@@ -6061,10 +6075,10 @@
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="24">
         <v>1</v>
       </c>
       <c r="D23" s="11" t="str">
@@ -6138,10 +6152,10 @@
       <c r="A24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="24">
         <v>1</v>
       </c>
       <c r="D24" s="11" t="str">
@@ -6215,10 +6229,10 @@
       <c r="A25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="24">
         <v>1</v>
       </c>
       <c r="D25" s="11" t="str">
@@ -6309,13 +6323,13 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="24">
         <v>1</v>
       </c>
       <c r="D28" s="11" t="str">
@@ -6386,13 +6400,13 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="24">
         <v>1</v>
       </c>
       <c r="D29" s="11" t="str">
@@ -6463,13 +6477,13 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="24">
         <v>1</v>
       </c>
       <c r="D30" s="11" t="str">
@@ -6536,17 +6550,17 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="24">
         <v>1</v>
       </c>
       <c r="D31" s="11" t="str">
@@ -6617,13 +6631,13 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="24">
         <v>1</v>
       </c>
       <c r="D32" s="11" t="str">
@@ -6694,13 +6708,13 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="24">
         <v>1</v>
       </c>
       <c r="D33" s="11" t="str">
@@ -6771,13 +6785,13 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="24">
         <v>1</v>
       </c>
       <c r="D34" s="11" t="str">
@@ -6848,13 +6862,13 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="24">
         <v>1</v>
       </c>
       <c r="D35" s="11" t="str">
@@ -6925,13 +6939,13 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="24">
         <v>1</v>
       </c>
       <c r="D36" s="11" t="str">
@@ -7002,13 +7016,13 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="24">
         <v>1</v>
       </c>
       <c r="D37" s="11" t="str">
@@ -7079,13 +7093,13 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="24">
         <v>1</v>
       </c>
       <c r="D38" s="11" t="str">
@@ -7156,7 +7170,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="38" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -7176,13 +7190,13 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="38">
+      <c r="C41" s="40">
         <v>1</v>
       </c>
       <c r="D41" s="11" t="str">
@@ -7253,13 +7267,13 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="38">
+      <c r="C42" s="40">
         <v>2</v>
       </c>
       <c r="D42" s="11" t="str">
@@ -7330,13 +7344,13 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="38">
+      <c r="C43" s="40">
         <v>3</v>
       </c>
       <c r="D43" s="11" t="str">
@@ -7407,13 +7421,13 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="38">
+      <c r="C44" s="40">
         <v>4</v>
       </c>
       <c r="D44" s="11" t="str">
@@ -7484,13 +7498,13 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="38">
+      <c r="C45" s="40">
         <v>5</v>
       </c>
       <c r="D45" s="11" t="str">
@@ -7561,13 +7575,13 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="38">
+      <c r="C46" s="40">
         <v>6</v>
       </c>
       <c r="D46" s="11" t="str">
@@ -7638,13 +7652,13 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="38">
+      <c r="C47" s="40">
         <v>7</v>
       </c>
       <c r="D47" s="11" t="str">
@@ -7715,13 +7729,13 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="38">
+      <c r="C48" s="40">
         <v>8</v>
       </c>
       <c r="D48" s="11" t="str">
@@ -7792,13 +7806,13 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="38">
+      <c r="C49" s="40">
         <v>9</v>
       </c>
       <c r="D49" s="11" t="str">
@@ -7869,13 +7883,13 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="38">
+      <c r="C50" s="40">
         <v>1</v>
       </c>
       <c r="D50" s="11" t="str">
@@ -7946,13 +7960,13 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="38">
+      <c r="C51" s="40">
         <v>1</v>
       </c>
       <c r="D51" s="11" t="str">
@@ -8023,13 +8037,13 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="38">
+      <c r="C52" s="40">
         <v>1</v>
       </c>
       <c r="D52" s="11" t="str">
@@ -8100,13 +8114,13 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="38">
+      <c r="C53" s="40">
         <v>1</v>
       </c>
       <c r="D53" s="11" t="str">
@@ -8177,7 +8191,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="41" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="10" t="s">
@@ -8197,13 +8211,13 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="38">
+      <c r="C56" s="40">
         <v>1</v>
       </c>
       <c r="D56" s="11" t="str">
@@ -8274,13 +8288,13 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="38">
+      <c r="C57" s="40">
         <v>1</v>
       </c>
       <c r="D57" s="11" t="str">
@@ -8351,13 +8365,13 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="38">
+      <c r="C58" s="40">
         <v>1</v>
       </c>
       <c r="D58" s="11" t="str">
@@ -8428,13 +8442,13 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="38">
+      <c r="C59" s="40">
         <v>1</v>
       </c>
       <c r="D59" s="11" t="str">
@@ -8505,13 +8519,13 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="38">
+      <c r="C60" s="40">
         <v>2</v>
       </c>
       <c r="D60" s="11" t="str">
@@ -8582,13 +8596,13 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="38">
+      <c r="C61" s="40">
         <v>1</v>
       </c>
       <c r="D61" s="11" t="str">
@@ -8659,13 +8673,13 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="38">
+      <c r="C62" s="40">
         <v>1</v>
       </c>
       <c r="D62" s="11" t="str">
@@ -8736,13 +8750,13 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="40" t="s">
+      <c r="A63" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="38">
+      <c r="C63" s="40">
         <v>1</v>
       </c>
       <c r="D63" s="11" t="str">
@@ -8813,13 +8827,13 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="38">
+      <c r="C64" s="40">
         <v>1</v>
       </c>
       <c r="D64" s="11" t="str">
@@ -8864,7 +8878,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="F64" s="11" t="str">
         <f t="array" aca="1" ref="F64" ca="1">IF(
@@ -8886,17 +8900,17 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="38">
+      <c r="C65" s="40">
         <v>1</v>
       </c>
       <c r="D65" s="11" t="str">
@@ -8967,13 +8981,13 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="38">
+      <c r="C66" s="40">
         <v>1</v>
       </c>
       <c r="D66" s="11" t="str">
@@ -9044,13 +9058,13 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="38">
+      <c r="C67" s="40">
         <v>1</v>
       </c>
       <c r="D67" s="11" t="str">
@@ -9121,7 +9135,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A69" s="41" t="s">
+      <c r="A69" s="43" t="s">
         <v>21</v>
       </c>
       <c r="B69" s="10" t="s">
@@ -9141,13 +9155,13 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="42" t="s">
+      <c r="A70" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="22">
+      <c r="C70" s="24">
         <v>1</v>
       </c>
       <c r="D70" s="11" t="str">
@@ -9218,13 +9232,13 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="42" t="s">
+      <c r="A71" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="22">
+      <c r="C71" s="24">
         <v>1</v>
       </c>
       <c r="D71" s="11" t="str">
@@ -9295,13 +9309,13 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C72" s="22">
+      <c r="C72" s="24">
         <v>2</v>
       </c>
       <c r="D72" s="11" t="str">
@@ -9372,13 +9386,13 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="42" t="s">
+      <c r="A73" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C73" s="22">
+      <c r="C73" s="24">
         <v>3</v>
       </c>
       <c r="D73" s="11" t="str">
@@ -9449,13 +9463,13 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="42" t="s">
+      <c r="A74" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="22">
+      <c r="C74" s="24">
         <v>4</v>
       </c>
       <c r="D74" s="11" t="str">
@@ -9526,13 +9540,13 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C75" s="22">
+      <c r="C75" s="24">
         <v>5</v>
       </c>
       <c r="D75" s="11" t="str">
@@ -9603,13 +9617,13 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="22">
+      <c r="C76" s="24">
         <v>6</v>
       </c>
       <c r="D76" s="11" t="str">
@@ -9680,13 +9694,13 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="42" t="s">
+      <c r="A77" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="22">
+      <c r="C77" s="24">
         <v>1</v>
       </c>
       <c r="D77" s="11" t="str">
@@ -9757,13 +9771,13 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="42" t="s">
+      <c r="A78" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="22">
+      <c r="C78" s="24">
         <v>1</v>
       </c>
       <c r="D78" s="11" t="str">
@@ -9834,13 +9848,13 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="22">
+      <c r="C79" s="24">
         <v>1</v>
       </c>
       <c r="D79" s="11" t="str">
@@ -9911,13 +9925,13 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="42" t="s">
+      <c r="A80" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="22">
+      <c r="C80" s="24">
         <v>1</v>
       </c>
       <c r="D80" s="11" t="str">
@@ -10011,12 +10025,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H33" sqref="H33"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10070,8 +10083,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -10102,8 +10115,8 @@
       </c>
       <c r="L2" s="16"/>
     </row>
-    <row r="3" spans="1:12" hidden="1">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -10133,7 +10146,7 @@
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -10164,8 +10177,8 @@
       </c>
       <c r="L4" s="16"/>
     </row>
-    <row r="5" spans="1:12" hidden="1">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -10194,8 +10207,8 @@
       </c>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="1:12" hidden="1">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -10225,7 +10238,7 @@
       <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -10257,7 +10270,7 @@
       <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -10288,8 +10301,8 @@
       </c>
       <c r="L8" s="16"/>
     </row>
-    <row r="9" spans="1:12" hidden="1">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -10316,8 +10329,8 @@
       </c>
       <c r="L9" s="16"/>
     </row>
-    <row r="10" spans="1:12" hidden="1">
-      <c r="A10" s="46" t="s">
+    <row r="10" spans="1:12">
+      <c r="A10" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -10346,8 +10359,8 @@
       </c>
       <c r="L10" s="16"/>
     </row>
-    <row r="11" spans="1:12" hidden="1">
-      <c r="A11" s="46" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -10368,7 +10381,7 @@
       <c r="G11" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="22" t="s">
         <v>122</v>
       </c>
       <c r="I11" s="16"/>
@@ -10378,8 +10391,8 @@
       </c>
       <c r="L11" s="16"/>
     </row>
-    <row r="12" spans="1:12" hidden="1">
-      <c r="A12" s="46" t="s">
+    <row r="12" spans="1:12">
+      <c r="A12" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -10400,7 +10413,9 @@
       <c r="G12" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16" t="s">
@@ -10408,8 +10423,8 @@
       </c>
       <c r="L12" s="16"/>
     </row>
-    <row r="13" spans="1:12" hidden="1">
-      <c r="A13" s="46" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -10419,7 +10434,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>5</v>
@@ -10430,7 +10445,9 @@
       <c r="G13" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16" t="s">
@@ -10438,8 +10455,8 @@
       </c>
       <c r="L13" s="16"/>
     </row>
-    <row r="14" spans="1:12" hidden="1">
-      <c r="A14" s="46" t="s">
+    <row r="14" spans="1:12">
+      <c r="A14" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -10449,7 +10466,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>5</v>
@@ -10460,7 +10477,9 @@
       <c r="G14" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16" t="s">
@@ -10468,8 +10487,8 @@
       </c>
       <c r="L14" s="16"/>
     </row>
-    <row r="15" spans="1:12" hidden="1">
-      <c r="A15" s="46" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -10479,7 +10498,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>5</v>
@@ -10490,7 +10509,9 @@
       <c r="G15" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16" t="s">
@@ -10498,8 +10519,8 @@
       </c>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="1:12" hidden="1">
-      <c r="A16" s="46" t="s">
+    <row r="16" spans="1:12">
+      <c r="A16" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -10518,7 +10539,9 @@
       <c r="G16" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16" t="s">
@@ -10526,8 +10549,8 @@
       </c>
       <c r="L16" s="16"/>
     </row>
-    <row r="17" spans="1:12" hidden="1">
-      <c r="A17" s="44" t="s">
+    <row r="17" spans="1:12">
+      <c r="A17" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -10537,19 +10560,19 @@
         <v>1</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
@@ -10558,8 +10581,8 @@
       </c>
       <c r="L17" s="16"/>
     </row>
-    <row r="18" spans="1:12" hidden="1">
-      <c r="A18" s="46" t="s">
+    <row r="18" spans="1:12">
+      <c r="A18" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -10569,13 +10592,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>100</v>
@@ -10588,8 +10611,8 @@
       </c>
       <c r="L18" s="16"/>
     </row>
-    <row r="19" spans="1:12" hidden="1">
-      <c r="A19" s="44" t="s">
+    <row r="19" spans="1:12">
+      <c r="A19" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -10599,7 +10622,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>117</v>
@@ -10616,8 +10639,8 @@
       </c>
       <c r="L19" s="16"/>
     </row>
-    <row r="20" spans="1:12" hidden="1">
-      <c r="A20" s="47" t="s">
+    <row r="20" spans="1:12">
+      <c r="A20" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -10627,13 +10650,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>100</v>
@@ -10646,8 +10669,8 @@
       </c>
       <c r="L20" s="16"/>
     </row>
-    <row r="21" spans="1:12" hidden="1">
-      <c r="A21" s="44" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -10657,13 +10680,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>100</v>
@@ -10676,8 +10699,8 @@
       </c>
       <c r="L21" s="16"/>
     </row>
-    <row r="22" spans="1:12" hidden="1">
-      <c r="A22" s="47" t="s">
+    <row r="22" spans="1:12">
+      <c r="A22" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="16" t="s">
@@ -10687,13 +10710,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>100</v>
@@ -10707,7 +10730,7 @@
       <c r="L22" s="16"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -10717,19 +10740,19 @@
         <v>1</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
@@ -10738,8 +10761,8 @@
       </c>
       <c r="L23" s="16"/>
     </row>
-    <row r="24" spans="1:12" hidden="1">
-      <c r="A24" s="48" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="16" t="s">
@@ -10749,13 +10772,13 @@
         <v>1</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>100</v>
@@ -10768,8 +10791,8 @@
       </c>
       <c r="L24" s="16"/>
     </row>
-    <row r="25" spans="1:12" hidden="1">
-      <c r="A25" s="48" t="s">
+    <row r="25" spans="1:12">
+      <c r="A25" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -10779,19 +10802,19 @@
         <v>2</v>
       </c>
       <c r="D25" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>144</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>143</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
@@ -10800,8 +10823,8 @@
       </c>
       <c r="L25" s="16"/>
     </row>
-    <row r="26" spans="1:12" hidden="1">
-      <c r="A26" s="48" t="s">
+    <row r="26" spans="1:12">
+      <c r="A26" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -10811,19 +10834,19 @@
         <v>3</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
@@ -10832,8 +10855,8 @@
       </c>
       <c r="L26" s="16"/>
     </row>
-    <row r="27" spans="1:12" hidden="1">
-      <c r="A27" s="48" t="s">
+    <row r="27" spans="1:12">
+      <c r="A27" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="16" t="s">
@@ -10843,19 +10866,19 @@
         <v>4</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
@@ -10864,8 +10887,8 @@
       </c>
       <c r="L27" s="16"/>
     </row>
-    <row r="28" spans="1:12" hidden="1">
-      <c r="A28" s="48" t="s">
+    <row r="28" spans="1:12">
+      <c r="A28" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="16" t="s">
@@ -10875,19 +10898,19 @@
         <v>5</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
@@ -10896,8 +10919,8 @@
       </c>
       <c r="L28" s="16"/>
     </row>
-    <row r="29" spans="1:12" hidden="1">
-      <c r="A29" s="48" t="s">
+    <row r="29" spans="1:12">
+      <c r="A29" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
@@ -10907,19 +10930,19 @@
         <v>6</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
@@ -10928,8 +10951,8 @@
       </c>
       <c r="L29" s="16"/>
     </row>
-    <row r="30" spans="1:12" hidden="1">
-      <c r="A30" s="48" t="s">
+    <row r="30" spans="1:12">
+      <c r="A30" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -10939,19 +10962,19 @@
         <v>7</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
@@ -10960,8 +10983,8 @@
       </c>
       <c r="L30" s="16"/>
     </row>
-    <row r="31" spans="1:12" hidden="1">
-      <c r="A31" s="48" t="s">
+    <row r="31" spans="1:12">
+      <c r="A31" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -10971,19 +10994,19 @@
         <v>8</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
@@ -10992,8 +11015,8 @@
       </c>
       <c r="L31" s="16"/>
     </row>
-    <row r="32" spans="1:12" hidden="1">
-      <c r="A32" s="48" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="16" t="s">
@@ -11003,19 +11026,19 @@
         <v>9</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
@@ -11024,8 +11047,8 @@
       </c>
       <c r="L32" s="16"/>
     </row>
-    <row r="33" spans="1:12" hidden="1">
-      <c r="A33" s="43" t="s">
+    <row r="33" spans="1:12">
+      <c r="A33" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="16" t="s">
@@ -11035,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>117</v>
@@ -11052,8 +11075,8 @@
       </c>
       <c r="L33" s="16"/>
     </row>
-    <row r="34" spans="1:12" hidden="1">
-      <c r="A34" s="43" t="s">
+    <row r="34" spans="1:12">
+      <c r="A34" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="16" t="s">
@@ -11063,16 +11086,16 @@
         <v>1</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="49">
-        <v>46000</v>
+        <v>155</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
@@ -11082,8 +11105,8 @@
       </c>
       <c r="L34" s="16"/>
     </row>
-    <row r="35" spans="1:12" hidden="1">
-      <c r="A35" s="44" t="s">
+    <row r="35" spans="1:12">
+      <c r="A35" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="16" t="s">
@@ -11093,33 +11116,33 @@
         <v>1</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G35" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I35" s="16"/>
       <c r="J35" s="16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K35" s="16" t="s">
         <v>100</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" hidden="1">
-      <c r="A36" s="44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="16" t="s">
@@ -11129,19 +11152,19 @@
         <v>1</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
@@ -11150,8 +11173,8 @@
       </c>
       <c r="L36" s="16"/>
     </row>
-    <row r="37" spans="1:12" hidden="1">
-      <c r="A37" s="44" t="s">
+    <row r="37" spans="1:12">
+      <c r="A37" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="16" t="s">
@@ -11161,19 +11184,19 @@
         <v>1</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
@@ -11183,7 +11206,7 @@
       <c r="L37" s="16"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B38" s="16" t="s">
@@ -11193,19 +11216,19 @@
         <v>1</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G38" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
@@ -11214,8 +11237,8 @@
       </c>
       <c r="L38" s="16"/>
     </row>
-    <row r="39" spans="1:12" hidden="1">
-      <c r="A39" s="47" t="s">
+    <row r="39" spans="1:12">
+      <c r="A39" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B39" s="16" t="s">
@@ -11225,13 +11248,13 @@
         <v>1</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G39" s="19" t="s">
         <v>100</v>
@@ -11245,7 +11268,7 @@
       <c r="L39" s="16"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -11255,13 +11278,13 @@
         <v>1</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G40" s="19" t="s">
         <v>100</v>
@@ -11274,8 +11297,8 @@
       </c>
       <c r="L40" s="16"/>
     </row>
-    <row r="41" spans="1:12" hidden="1">
-      <c r="A41" s="46" t="s">
+    <row r="41" spans="1:12">
+      <c r="A41" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="16" t="s">
@@ -11285,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>117</v>
@@ -11302,8 +11325,8 @@
       </c>
       <c r="L41" s="16"/>
     </row>
-    <row r="42" spans="1:12" hidden="1">
-      <c r="A42" s="47" t="s">
+    <row r="42" spans="1:12">
+      <c r="A42" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="16" t="s">
@@ -11313,13 +11336,13 @@
         <v>1</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G42" s="19" t="s">
         <v>100</v>
@@ -11332,8 +11355,8 @@
       </c>
       <c r="L42" s="16"/>
     </row>
-    <row r="43" spans="1:12" hidden="1">
-      <c r="A43" s="47" t="s">
+    <row r="43" spans="1:12">
+      <c r="A43" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B43" s="16" t="s">
@@ -11343,13 +11366,13 @@
         <v>2</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G43" s="19" t="s">
         <v>100</v>
@@ -11363,7 +11386,7 @@
       <c r="L43" s="16"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="16" t="s">
@@ -11373,13 +11396,13 @@
         <v>1</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G44" s="19" t="s">
         <v>100</v>
@@ -11392,8 +11415,8 @@
       </c>
       <c r="L44" s="16"/>
     </row>
-    <row r="45" spans="1:12" hidden="1">
-      <c r="A45" s="47" t="s">
+    <row r="45" spans="1:12">
+      <c r="A45" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B45" s="16" t="s">
@@ -11403,13 +11426,13 @@
         <v>1</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>100</v>
@@ -11422,8 +11445,8 @@
       </c>
       <c r="L45" s="16"/>
     </row>
-    <row r="46" spans="1:12" hidden="1">
-      <c r="A46" s="48" t="s">
+    <row r="46" spans="1:12">
+      <c r="A46" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B46" s="16" t="s">
@@ -11433,19 +11456,19 @@
         <v>1</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G46" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
@@ -11454,8 +11477,8 @@
       </c>
       <c r="L46" s="16"/>
     </row>
-    <row r="47" spans="1:12" hidden="1">
-      <c r="A47" s="43" t="s">
+    <row r="47" spans="1:12">
+      <c r="A47" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B47" s="16" t="s">
@@ -11465,13 +11488,13 @@
         <v>1</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G47" s="19" t="s">
         <v>102</v>
@@ -11484,8 +11507,8 @@
       </c>
       <c r="L47" s="16"/>
     </row>
-    <row r="48" spans="1:12" hidden="1">
-      <c r="A48" s="47" t="s">
+    <row r="48" spans="1:12">
+      <c r="A48" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -11495,13 +11518,13 @@
         <v>1</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>100</v>
@@ -11514,8 +11537,8 @@
       </c>
       <c r="L48" s="16"/>
     </row>
-    <row r="49" spans="1:12" hidden="1">
-      <c r="A49" s="43" t="s">
+    <row r="49" spans="1:12">
+      <c r="A49" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B49" s="16" t="s">
@@ -11525,19 +11548,19 @@
         <v>1</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
@@ -11547,7 +11570,7 @@
       <c r="L49" s="16"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -11557,19 +11580,19 @@
         <v>1</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G50" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
@@ -11578,8 +11601,8 @@
       </c>
       <c r="L50" s="16"/>
     </row>
-    <row r="51" spans="1:12" hidden="1">
-      <c r="A51" s="43" t="s">
+    <row r="51" spans="1:12">
+      <c r="A51" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B51" s="16" t="s">
@@ -11589,19 +11612,19 @@
         <v>1</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
@@ -11610,8 +11633,8 @@
       </c>
       <c r="L51" s="16"/>
     </row>
-    <row r="52" spans="1:12" hidden="1">
-      <c r="A52" s="43" t="s">
+    <row r="52" spans="1:12">
+      <c r="A52" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B52" s="16" t="s">
@@ -11621,19 +11644,19 @@
         <v>1</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G52" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
@@ -11643,7 +11666,7 @@
       <c r="L52" s="16"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="16" t="s">
@@ -11653,13 +11676,13 @@
         <v>1</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G53" s="19" t="s">
         <v>100</v>
@@ -11672,8 +11695,8 @@
       </c>
       <c r="L53" s="16"/>
     </row>
-    <row r="54" spans="1:12" hidden="1">
-      <c r="A54" s="47" t="s">
+    <row r="54" spans="1:12">
+      <c r="A54" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -11683,19 +11706,19 @@
         <v>1</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
@@ -11704,8 +11727,8 @@
       </c>
       <c r="L54" s="16"/>
     </row>
-    <row r="55" spans="1:12" hidden="1">
-      <c r="A55" s="43" t="s">
+    <row r="55" spans="1:12">
+      <c r="A55" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B55" s="16" t="s">
@@ -11715,19 +11738,19 @@
         <v>1</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G55" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I55" s="16"/>
       <c r="J55" s="16"/>
@@ -11736,8 +11759,8 @@
       </c>
       <c r="L55" s="16"/>
     </row>
-    <row r="56" spans="1:12" hidden="1">
-      <c r="A56" s="47" t="s">
+    <row r="56" spans="1:12">
+      <c r="A56" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B56" s="16" t="s">
@@ -11747,13 +11770,13 @@
         <v>1</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G56" s="19" t="s">
         <v>100</v>
@@ -11766,8 +11789,8 @@
       </c>
       <c r="L56" s="16"/>
     </row>
-    <row r="57" spans="1:12" hidden="1">
-      <c r="A57" s="47" t="s">
+    <row r="57" spans="1:12">
+      <c r="A57" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B57" s="16" t="s">
@@ -11777,13 +11800,13 @@
         <v>1</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G57" s="19" t="s">
         <v>100</v>
@@ -11796,8 +11819,8 @@
       </c>
       <c r="L57" s="16"/>
     </row>
-    <row r="58" spans="1:12" hidden="1">
-      <c r="A58" s="46" t="s">
+    <row r="58" spans="1:12">
+      <c r="A58" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B58" s="16" t="s">
@@ -11807,7 +11830,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>117</v>
@@ -11824,8 +11847,8 @@
       </c>
       <c r="L58" s="16"/>
     </row>
-    <row r="59" spans="1:12" hidden="1">
-      <c r="A59" s="46" t="s">
+    <row r="59" spans="1:12">
+      <c r="A59" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B59" s="16" t="s">
@@ -11835,7 +11858,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>98</v>
@@ -11854,8 +11877,8 @@
       </c>
       <c r="L59" s="16"/>
     </row>
-    <row r="60" spans="1:12" hidden="1">
-      <c r="A60" s="48" t="s">
+    <row r="60" spans="1:12">
+      <c r="A60" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B60" s="16" t="s">
@@ -11865,19 +11888,19 @@
         <v>1</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
@@ -11886,8 +11909,8 @@
       </c>
       <c r="L60" s="16"/>
     </row>
-    <row r="61" spans="1:12" hidden="1">
-      <c r="A61" s="43" t="s">
+    <row r="61" spans="1:12">
+      <c r="A61" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B61" s="16" t="s">
@@ -11897,19 +11920,19 @@
         <v>1</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E61" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G61" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
@@ -11918,8 +11941,8 @@
       </c>
       <c r="L61" s="16"/>
     </row>
-    <row r="62" spans="1:12" hidden="1">
-      <c r="A62" s="48" t="s">
+    <row r="62" spans="1:12">
+      <c r="A62" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="16" t="s">
@@ -11929,19 +11952,19 @@
         <v>1</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E62" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G62" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
@@ -11950,8 +11973,8 @@
       </c>
       <c r="L62" s="16"/>
     </row>
-    <row r="63" spans="1:12" hidden="1">
-      <c r="A63" s="47" t="s">
+    <row r="63" spans="1:12">
+      <c r="A63" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B63" s="16" t="s">
@@ -11961,13 +11984,13 @@
         <v>1</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E63" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G63" s="19" t="s">
         <v>100</v>
@@ -11980,8 +12003,8 @@
       </c>
       <c r="L63" s="16"/>
     </row>
-    <row r="64" spans="1:12" hidden="1">
-      <c r="A64" s="48" t="s">
+    <row r="64" spans="1:12">
+      <c r="A64" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B64" s="16" t="s">
@@ -11991,13 +12014,13 @@
         <v>1</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E64" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>100</v>
@@ -12010,8 +12033,8 @@
       </c>
       <c r="L64" s="16"/>
     </row>
-    <row r="65" spans="1:12" hidden="1">
-      <c r="A65" s="43" t="s">
+    <row r="65" spans="1:12">
+      <c r="A65" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B65" s="16" t="s">
@@ -12021,33 +12044,33 @@
         <v>1</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I65" s="16"/>
       <c r="J65" s="16" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K65" s="16" t="s">
         <v>100</v>
       </c>
       <c r="L65" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" hidden="1">
-      <c r="A66" s="43" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B66" s="16" t="s">
@@ -12057,19 +12080,19 @@
         <v>1</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G66" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I66" s="16"/>
       <c r="J66" s="16"/>
@@ -12078,8 +12101,8 @@
       </c>
       <c r="L66" s="16"/>
     </row>
-    <row r="67" spans="1:12" hidden="1">
-      <c r="A67" s="44" t="s">
+    <row r="67" spans="1:12">
+      <c r="A67" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B67" s="16" t="s">
@@ -12089,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>98</v>
@@ -12101,7 +12124,7 @@
         <v>100</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I67" s="16"/>
       <c r="J67" s="16"/>
@@ -12111,7 +12134,7 @@
       <c r="L67" s="16"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="45" t="s">
+      <c r="A68" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B68" s="16" t="s">
@@ -12121,19 +12144,19 @@
         <v>1</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G68" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I68" s="16"/>
       <c r="J68" s="16"/>
@@ -12143,7 +12166,7 @@
       <c r="L68" s="16"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="45" t="s">
+      <c r="A69" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B69" s="16" t="s">
@@ -12153,7 +12176,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E69" s="20" t="s">
         <v>117</v>
@@ -12170,8 +12193,8 @@
       </c>
       <c r="L69" s="16"/>
     </row>
-    <row r="70" spans="1:12" hidden="1">
-      <c r="A70" s="47" t="s">
+    <row r="70" spans="1:12">
+      <c r="A70" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B70" s="16" t="s">
@@ -12181,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>117</v>
@@ -12199,13 +12222,7 @@
       <c r="L70" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G70" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Gustavo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <conditionalFormatting sqref="G2:G70">
     <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -12259,12 +12276,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I51" sqref="I51"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12317,8 +12333,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -12335,13 +12351,13 @@
         <v>98</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="16" t="s">
@@ -12349,8 +12365,8 @@
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11" hidden="1">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -12373,7 +12389,7 @@
         <v>100</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16" t="s">
@@ -12382,7 +12398,7 @@
       <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -12399,13 +12415,13 @@
         <v>98</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16" t="s">
@@ -12413,8 +12429,8 @@
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11" hidden="1">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -12431,13 +12447,13 @@
         <v>98</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16" t="s">
@@ -12445,8 +12461,8 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11" hidden="1">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -12463,7 +12479,7 @@
         <v>98</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>102</v>
@@ -12476,7 +12492,7 @@
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -12499,7 +12515,7 @@
         <v>100</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16" t="s">
@@ -12508,7 +12524,7 @@
       <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -12527,8 +12543,8 @@
       <c r="F8" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>102</v>
+      <c r="G8" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -12537,8 +12553,8 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11" hidden="1">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -12565,8 +12581,8 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11" hidden="1">
-      <c r="A10" s="46" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -12583,7 +12599,7 @@
         <v>98</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>100</v>
@@ -12595,8 +12611,8 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11" hidden="1">
-      <c r="A11" s="46" t="s">
+    <row r="11" spans="1:11">
+      <c r="A11" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -12625,8 +12641,8 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11" hidden="1">
-      <c r="A12" s="46" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -12655,8 +12671,8 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11" hidden="1">
-      <c r="A13" s="46" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -12685,8 +12701,8 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11" hidden="1">
-      <c r="A14" s="46" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -12703,13 +12719,13 @@
         <v>5</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16" t="s">
@@ -12717,8 +12733,8 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11" hidden="1">
-      <c r="A15" s="46" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -12735,7 +12751,7 @@
         <v>98</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>100</v>
@@ -12747,8 +12763,8 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11" hidden="1">
-      <c r="A16" s="46" t="s">
+    <row r="16" spans="1:11">
+      <c r="A16" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -12765,7 +12781,7 @@
         <v>98</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>100</v>
@@ -12777,8 +12793,8 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" hidden="1">
-      <c r="A17" s="44" t="s">
+    <row r="17" spans="1:11">
+      <c r="A17" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -12807,8 +12823,8 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" hidden="1">
-      <c r="A18" s="46" t="s">
+    <row r="18" spans="1:11">
+      <c r="A18" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -12825,7 +12841,7 @@
         <v>98</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>100</v>
@@ -12837,8 +12853,8 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" hidden="1">
-      <c r="A19" s="44" t="s">
+    <row r="19" spans="1:11">
+      <c r="A19" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -12865,8 +12881,8 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" hidden="1">
-      <c r="A20" s="44" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -12883,7 +12899,7 @@
         <v>98</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>100</v>
@@ -12895,8 +12911,8 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" hidden="1">
-      <c r="A21" s="47" t="s">
+    <row r="21" spans="1:11">
+      <c r="A21" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -12925,8 +12941,8 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" hidden="1">
-      <c r="A22" s="47" t="s">
+    <row r="22" spans="1:11">
+      <c r="A22" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="16" t="s">
@@ -12943,7 +12959,7 @@
         <v>98</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>100</v>
@@ -12956,7 +12972,7 @@
       <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -12973,7 +12989,7 @@
         <v>98</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>102</v>
@@ -12985,8 +13001,8 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" hidden="1">
-      <c r="A24" s="48" t="s">
+    <row r="24" spans="1:11">
+      <c r="A24" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="16" t="s">
@@ -13003,7 +13019,7 @@
         <v>98</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>102</v>
@@ -13015,8 +13031,8 @@
       </c>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" hidden="1">
-      <c r="A25" s="48" t="s">
+    <row r="25" spans="1:11">
+      <c r="A25" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -13033,13 +13049,13 @@
         <v>98</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16" t="s">
@@ -13047,8 +13063,8 @@
       </c>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" hidden="1">
-      <c r="A26" s="48" t="s">
+    <row r="26" spans="1:11">
+      <c r="A26" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -13065,13 +13081,13 @@
         <v>98</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="16" t="s">
@@ -13079,8 +13095,8 @@
       </c>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" hidden="1">
-      <c r="A27" s="48" t="s">
+    <row r="27" spans="1:11">
+      <c r="A27" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="16" t="s">
@@ -13103,7 +13119,7 @@
         <v>100</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I27" s="16"/>
       <c r="J27" s="16" t="s">
@@ -13111,8 +13127,8 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" hidden="1">
-      <c r="A28" s="48" t="s">
+    <row r="28" spans="1:11">
+      <c r="A28" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="16" t="s">
@@ -13129,7 +13145,7 @@
         <v>98</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>100</v>
@@ -13141,8 +13157,8 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" hidden="1">
-      <c r="A29" s="48" t="s">
+    <row r="29" spans="1:11">
+      <c r="A29" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
@@ -13165,7 +13181,7 @@
         <v>100</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
@@ -13173,8 +13189,8 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" hidden="1">
-      <c r="A30" s="48" t="s">
+    <row r="30" spans="1:11">
+      <c r="A30" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -13191,13 +13207,13 @@
         <v>98</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16" t="s">
@@ -13205,8 +13221,8 @@
       </c>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" hidden="1">
-      <c r="A31" s="48" t="s">
+    <row r="31" spans="1:11">
+      <c r="A31" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -13223,13 +13239,13 @@
         <v>98</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I31" s="16"/>
       <c r="J31" s="16" t="s">
@@ -13237,8 +13253,8 @@
       </c>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" hidden="1">
-      <c r="A32" s="48" t="s">
+    <row r="32" spans="1:11">
+      <c r="A32" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="16" t="s">
@@ -13255,7 +13271,7 @@
         <v>98</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>100</v>
@@ -13267,8 +13283,8 @@
       </c>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:11" hidden="1">
-      <c r="A33" s="43" t="s">
+    <row r="33" spans="1:11">
+      <c r="A33" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="16" t="s">
@@ -13295,8 +13311,8 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11" hidden="1">
-      <c r="A34" s="43" t="s">
+    <row r="34" spans="1:11">
+      <c r="A34" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="16" t="s">
@@ -13309,14 +13325,14 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Marlene R. Oliveira Dallacosta</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="49">
-        <v>46000</v>
+      <c r="E34" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
@@ -13325,8 +13341,8 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11" hidden="1">
-      <c r="A35" s="44" t="s">
+    <row r="35" spans="1:11">
+      <c r="A35" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="16" t="s">
@@ -13343,7 +13359,7 @@
         <v>98</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>100</v>
@@ -13355,8 +13371,8 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11" hidden="1">
-      <c r="A36" s="44" t="s">
+    <row r="36" spans="1:11">
+      <c r="A36" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="16" t="s">
@@ -13373,7 +13389,7 @@
         <v>98</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>100</v>
@@ -13385,8 +13401,8 @@
       </c>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11" hidden="1">
-      <c r="A37" s="44" t="s">
+    <row r="37" spans="1:11">
+      <c r="A37" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="16" t="s">
@@ -13403,7 +13419,7 @@
         <v>98</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>100</v>
@@ -13416,7 +13432,7 @@
       <c r="K37" s="16"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B38" s="16" t="s">
@@ -13433,7 +13449,7 @@
         <v>98</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G38" s="19" t="s">
         <v>102</v>
@@ -13445,8 +13461,8 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11" hidden="1">
-      <c r="A39" s="47" t="s">
+    <row r="39" spans="1:11">
+      <c r="A39" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B39" s="16" t="s">
@@ -13463,7 +13479,7 @@
         <v>98</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G39" s="18" t="s">
         <v>100</v>
@@ -13476,7 +13492,7 @@
       <c r="K39" s="16"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -13503,8 +13519,8 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:11" hidden="1">
-      <c r="A41" s="46" t="s">
+    <row r="41" spans="1:11">
+      <c r="A41" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="16" t="s">
@@ -13531,8 +13547,8 @@
       </c>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:11" hidden="1">
-      <c r="A42" s="47" t="s">
+    <row r="42" spans="1:11">
+      <c r="A42" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="16" t="s">
@@ -13549,7 +13565,7 @@
         <v>98</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G42" s="18" t="s">
         <v>100</v>
@@ -13561,8 +13577,8 @@
       </c>
       <c r="K42" s="16"/>
     </row>
-    <row r="43" spans="1:11" hidden="1">
-      <c r="A43" s="47" t="s">
+    <row r="43" spans="1:11">
+      <c r="A43" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B43" s="16" t="s">
@@ -13579,7 +13595,7 @@
         <v>98</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>100</v>
@@ -13592,7 +13608,7 @@
       <c r="K43" s="16"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="16" t="s">
@@ -13609,7 +13625,7 @@
         <v>98</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G44" s="19" t="s">
         <v>102</v>
@@ -13621,8 +13637,8 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11" hidden="1">
-      <c r="A45" s="47" t="s">
+    <row r="45" spans="1:11">
+      <c r="A45" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B45" s="16" t="s">
@@ -13639,7 +13655,7 @@
         <v>98</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>100</v>
@@ -13651,8 +13667,8 @@
       </c>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:11" hidden="1">
-      <c r="A46" s="48" t="s">
+    <row r="46" spans="1:11">
+      <c r="A46" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B46" s="16" t="s">
@@ -13669,13 +13685,13 @@
         <v>98</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G46" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I46" s="16"/>
       <c r="J46" s="16" t="s">
@@ -13683,8 +13699,8 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11" hidden="1">
-      <c r="A47" s="43" t="s">
+    <row r="47" spans="1:11">
+      <c r="A47" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B47" s="16" t="s">
@@ -13701,7 +13717,7 @@
         <v>98</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G47" s="19" t="s">
         <v>102</v>
@@ -13713,8 +13729,8 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11" hidden="1">
-      <c r="A48" s="47" t="s">
+    <row r="48" spans="1:11">
+      <c r="A48" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -13731,7 +13747,7 @@
         <v>98</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>100</v>
@@ -13743,8 +13759,8 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11" hidden="1">
-      <c r="A49" s="43" t="s">
+    <row r="49" spans="1:11">
+      <c r="A49" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B49" s="16" t="s">
@@ -13761,16 +13777,16 @@
         <v>5</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G49" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J49" s="16" t="s">
         <v>102</v>
@@ -13778,7 +13794,7 @@
       <c r="K49" s="16"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -13795,20 +13811,22 @@
         <v>5</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>102</v>
+        <v>268</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
+      <c r="I50" s="16" t="s">
+        <v>269</v>
+      </c>
       <c r="J50" s="16" t="s">
         <v>102</v>
       </c>
       <c r="K50" s="16"/>
     </row>
-    <row r="51" spans="1:11" hidden="1">
-      <c r="A51" s="43" t="s">
+    <row r="51" spans="1:11">
+      <c r="A51" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B51" s="16" t="s">
@@ -13825,13 +13843,13 @@
         <v>98</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I51" s="16"/>
       <c r="J51" s="16" t="s">
@@ -13839,8 +13857,8 @@
       </c>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:11" hidden="1">
-      <c r="A52" s="43" t="s">
+    <row r="52" spans="1:11">
+      <c r="A52" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B52" s="16" t="s">
@@ -13857,13 +13875,13 @@
         <v>98</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G52" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I52" s="16"/>
       <c r="J52" s="16" t="s">
@@ -13872,7 +13890,7 @@
       <c r="K52" s="16"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="16" t="s">
@@ -13889,7 +13907,7 @@
         <v>98</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G53" s="19" t="s">
         <v>102</v>
@@ -13901,8 +13919,8 @@
       </c>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:11" hidden="1">
-      <c r="A54" s="47" t="s">
+    <row r="54" spans="1:11">
+      <c r="A54" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -13919,7 +13937,7 @@
         <v>98</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>100</v>
@@ -13931,8 +13949,8 @@
       </c>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:11" hidden="1">
-      <c r="A55" s="43" t="s">
+    <row r="55" spans="1:11">
+      <c r="A55" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B55" s="16" t="s">
@@ -13949,13 +13967,13 @@
         <v>98</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G55" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I55" s="16"/>
       <c r="J55" s="16" t="s">
@@ -13963,8 +13981,8 @@
       </c>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:11" hidden="1">
-      <c r="A56" s="47" t="s">
+    <row r="56" spans="1:11">
+      <c r="A56" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B56" s="16" t="s">
@@ -13977,10 +13995,12 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Ana Paula Romagnoli</v>
       </c>
-      <c r="E56" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F56" s="16"/>
+      <c r="E56" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>274</v>
+      </c>
       <c r="G56" s="19" t="s">
         <v>102</v>
       </c>
@@ -13991,8 +14011,8 @@
       </c>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:11" hidden="1">
-      <c r="A57" s="47" t="s">
+    <row r="57" spans="1:11">
+      <c r="A57" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B57" s="16" t="s">
@@ -14009,7 +14029,7 @@
         <v>98</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G57" s="18" t="s">
         <v>100</v>
@@ -14021,8 +14041,8 @@
       </c>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:11" hidden="1">
-      <c r="A58" s="46" t="s">
+    <row r="58" spans="1:11">
+      <c r="A58" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B58" s="16" t="s">
@@ -14039,13 +14059,13 @@
         <v>98</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G58" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="I58" s="16"/>
       <c r="J58" s="16" t="s">
@@ -14053,8 +14073,8 @@
       </c>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11" hidden="1">
-      <c r="A59" s="46" t="s">
+    <row r="59" spans="1:11">
+      <c r="A59" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B59" s="16" t="s">
@@ -14071,7 +14091,7 @@
         <v>98</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G59" s="18" t="s">
         <v>100</v>
@@ -14083,8 +14103,8 @@
       </c>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:11" hidden="1">
-      <c r="A60" s="48" t="s">
+    <row r="60" spans="1:11">
+      <c r="A60" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B60" s="16" t="s">
@@ -14101,7 +14121,7 @@
         <v>98</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>100</v>
@@ -14113,8 +14133,8 @@
       </c>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:11" hidden="1">
-      <c r="A61" s="43" t="s">
+    <row r="61" spans="1:11">
+      <c r="A61" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B61" s="16" t="s">
@@ -14131,13 +14151,13 @@
         <v>98</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G61" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="I61" s="16"/>
       <c r="J61" s="16" t="s">
@@ -14145,8 +14165,8 @@
       </c>
       <c r="K61" s="16"/>
     </row>
-    <row r="62" spans="1:11" hidden="1">
-      <c r="A62" s="48" t="s">
+    <row r="62" spans="1:11">
+      <c r="A62" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="16" t="s">
@@ -14163,24 +14183,24 @@
         <v>98</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G62" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="16" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="J62" s="16" t="s">
         <v>100</v>
       </c>
       <c r="K62" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1">
-      <c r="A63" s="47" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B63" s="16" t="s">
@@ -14197,7 +14217,7 @@
         <v>98</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G63" s="18" t="s">
         <v>100</v>
@@ -14209,8 +14229,8 @@
       </c>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11" hidden="1">
-      <c r="A64" s="48" t="s">
+    <row r="64" spans="1:11">
+      <c r="A64" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B64" s="16" t="s">
@@ -14227,13 +14247,13 @@
         <v>98</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="I64" s="16"/>
       <c r="J64" s="16" t="s">
@@ -14241,8 +14261,8 @@
       </c>
       <c r="K64" s="16"/>
     </row>
-    <row r="65" spans="1:11" hidden="1">
-      <c r="A65" s="43" t="s">
+    <row r="65" spans="1:11">
+      <c r="A65" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B65" s="16" t="s">
@@ -14259,26 +14279,26 @@
         <v>98</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="J65" s="16" t="s">
         <v>100</v>
       </c>
       <c r="K65" s="16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1">
-      <c r="A66" s="43" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B66" s="16" t="s">
@@ -14295,7 +14315,7 @@
         <v>98</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G66" s="19" t="s">
         <v>102</v>
@@ -14307,8 +14327,8 @@
       </c>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="1:11" hidden="1">
-      <c r="A67" s="44" t="s">
+    <row r="67" spans="1:11">
+      <c r="A67" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B67" s="16" t="s">
@@ -14331,7 +14351,7 @@
         <v>100</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I67" s="16"/>
       <c r="J67" s="16" t="s">
@@ -14340,7 +14360,7 @@
       <c r="K67" s="16"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="45" t="s">
+      <c r="A68" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B68" s="16" t="s">
@@ -14357,7 +14377,7 @@
         <v>98</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G68" s="19" t="s">
         <v>102</v>
@@ -14370,7 +14390,7 @@
       <c r="K68" s="16"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="45" t="s">
+      <c r="A69" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B69" s="16" t="s">
@@ -14387,7 +14407,7 @@
         <v>98</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G69" s="19" t="s">
         <v>102</v>
@@ -14399,8 +14419,8 @@
       </c>
       <c r="K69" s="16"/>
     </row>
-    <row r="70" spans="1:11" hidden="1">
-      <c r="A70" s="47" t="s">
+    <row r="70" spans="1:11">
+      <c r="A70" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B70" s="16" t="s">
@@ -14428,13 +14448,7 @@
       <c r="K70" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G70" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Gustavo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="G2:G70">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -14488,12 +14502,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H7" sqref="H7"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14545,8 +14558,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -14559,14 +14572,14 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Paula Tatiana Santana Vechi</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="49">
-        <v>46000</v>
+      <c r="E2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -14575,8 +14588,8 @@
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11" hidden="1">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -14593,7 +14606,7 @@
         <v>98</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>102</v>
@@ -14606,7 +14619,7 @@
       <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -14623,7 +14636,7 @@
         <v>98</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>100</v>
@@ -14637,8 +14650,8 @@
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11" hidden="1">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -14655,13 +14668,13 @@
         <v>98</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16" t="s">
@@ -14669,8 +14682,8 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11" hidden="1">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -14687,7 +14700,7 @@
         <v>98</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>102</v>
@@ -14700,7 +14713,7 @@
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -14723,7 +14736,7 @@
         <v>100</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16" t="s">
@@ -14732,7 +14745,7 @@
       <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -14745,10 +14758,12 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Cristiane Petry Vieira</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="16"/>
+      <c r="E8" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>289</v>
+      </c>
       <c r="G8" s="19" t="s">
         <v>102</v>
       </c>
@@ -14759,8 +14774,8 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11" hidden="1">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -14787,8 +14802,8 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11" hidden="1">
-      <c r="A10" s="46" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -14812,17 +14827,17 @@
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>100</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1">
-      <c r="A11" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -14851,8 +14866,8 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11" hidden="1">
-      <c r="A12" s="46" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -14881,8 +14896,8 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11" hidden="1">
-      <c r="A13" s="46" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -14911,8 +14926,8 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11" hidden="1">
-      <c r="A14" s="46" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -14929,13 +14944,13 @@
         <v>5</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>288</v>
+      <c r="H14" s="23" t="s">
+        <v>293</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16" t="s">
@@ -14943,8 +14958,8 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11" hidden="1">
-      <c r="A15" s="46" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -14961,7 +14976,7 @@
         <v>98</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>100</v>
@@ -14973,8 +14988,8 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11" hidden="1">
-      <c r="A16" s="46" t="s">
+    <row r="16" spans="1:11">
+      <c r="A16" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -14991,10 +15006,10 @@
         <v>98</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>102</v>
+        <v>294</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
@@ -15003,8 +15018,8 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" hidden="1">
-      <c r="A17" s="44" t="s">
+    <row r="17" spans="1:11">
+      <c r="A17" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -15033,8 +15048,8 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" hidden="1">
-      <c r="A18" s="46" t="s">
+    <row r="18" spans="1:11">
+      <c r="A18" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -15051,7 +15066,7 @@
         <v>98</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>100</v>
@@ -15063,8 +15078,8 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" hidden="1">
-      <c r="A19" s="44" t="s">
+    <row r="19" spans="1:11">
+      <c r="A19" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -15091,8 +15106,8 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" hidden="1">
-      <c r="A20" s="44" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -15109,7 +15124,7 @@
         <v>98</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>100</v>
@@ -15121,8 +15136,8 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" hidden="1">
-      <c r="A21" s="47" t="s">
+    <row r="21" spans="1:11">
+      <c r="A21" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -15139,13 +15154,13 @@
         <v>98</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
@@ -15153,8 +15168,8 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" hidden="1">
-      <c r="A22" s="47" t="s">
+    <row r="22" spans="1:11">
+      <c r="A22" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="16" t="s">
@@ -15171,7 +15186,7 @@
         <v>98</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>100</v>
@@ -15184,7 +15199,7 @@
       <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -15201,7 +15216,7 @@
         <v>98</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>102</v>
@@ -15213,8 +15228,8 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" hidden="1">
-      <c r="A24" s="48" t="s">
+    <row r="24" spans="1:11">
+      <c r="A24" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="16" t="s">
@@ -15231,7 +15246,7 @@
         <v>98</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>102</v>
@@ -15243,8 +15258,8 @@
       </c>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" hidden="1">
-      <c r="A25" s="48" t="s">
+    <row r="25" spans="1:11">
+      <c r="A25" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -15261,7 +15276,7 @@
         <v>98</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>100</v>
@@ -15273,8 +15288,8 @@
       </c>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" hidden="1">
-      <c r="A26" s="48" t="s">
+    <row r="26" spans="1:11">
+      <c r="A26" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -15291,7 +15306,7 @@
         <v>98</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>100</v>
@@ -15303,8 +15318,8 @@
       </c>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" hidden="1">
-      <c r="A27" s="48" t="s">
+    <row r="27" spans="1:11">
+      <c r="A27" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="16" t="s">
@@ -15333,8 +15348,8 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" hidden="1">
-      <c r="A28" s="48" t="s">
+    <row r="28" spans="1:11">
+      <c r="A28" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="16" t="s">
@@ -15351,7 +15366,7 @@
         <v>98</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>100</v>
@@ -15363,8 +15378,8 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" hidden="1">
-      <c r="A29" s="48" t="s">
+    <row r="29" spans="1:11">
+      <c r="A29" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
@@ -15387,7 +15402,7 @@
         <v>100</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
@@ -15395,8 +15410,8 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" hidden="1">
-      <c r="A30" s="48" t="s">
+    <row r="30" spans="1:11">
+      <c r="A30" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -15413,13 +15428,13 @@
         <v>98</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16" t="s">
@@ -15427,8 +15442,8 @@
       </c>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" hidden="1">
-      <c r="A31" s="48" t="s">
+    <row r="31" spans="1:11">
+      <c r="A31" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -15445,13 +15460,13 @@
         <v>98</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I31" s="16"/>
       <c r="J31" s="16" t="s">
@@ -15459,8 +15474,8 @@
       </c>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" hidden="1">
-      <c r="A32" s="48" t="s">
+    <row r="32" spans="1:11">
+      <c r="A32" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="16" t="s">
@@ -15477,13 +15492,13 @@
         <v>98</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="I32" s="16"/>
       <c r="J32" s="16" t="s">
@@ -15491,8 +15506,8 @@
       </c>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:11" hidden="1">
-      <c r="A33" s="43" t="s">
+    <row r="33" spans="1:11">
+      <c r="A33" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="16" t="s">
@@ -15519,8 +15534,8 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11" hidden="1">
-      <c r="A34" s="43" t="s">
+    <row r="34" spans="1:11">
+      <c r="A34" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="16" t="s">
@@ -15533,17 +15548,17 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Marlene R. Oliveira Dallacosta</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="49">
-        <v>46000</v>
+      <c r="E34" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="16" t="s">
@@ -15551,8 +15566,8 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11" hidden="1">
-      <c r="A35" s="44" t="s">
+    <row r="35" spans="1:11">
+      <c r="A35" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="16" t="s">
@@ -15569,7 +15584,7 @@
         <v>98</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G35" s="19" t="s">
         <v>102</v>
@@ -15581,8 +15596,8 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11" hidden="1">
-      <c r="A36" s="44" t="s">
+    <row r="36" spans="1:11">
+      <c r="A36" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="16" t="s">
@@ -15599,7 +15614,7 @@
         <v>98</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>100</v>
@@ -15611,8 +15626,8 @@
       </c>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11" hidden="1">
-      <c r="A37" s="44" t="s">
+    <row r="37" spans="1:11">
+      <c r="A37" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="16" t="s">
@@ -15629,7 +15644,7 @@
         <v>98</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>100</v>
@@ -15642,7 +15657,7 @@
       <c r="K37" s="16"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B38" s="16" t="s">
@@ -15659,7 +15674,7 @@
         <v>98</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G38" s="19" t="s">
         <v>102</v>
@@ -15671,8 +15686,8 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11" hidden="1">
-      <c r="A39" s="47" t="s">
+    <row r="39" spans="1:11">
+      <c r="A39" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B39" s="16" t="s">
@@ -15689,7 +15704,7 @@
         <v>98</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G39" s="18" t="s">
         <v>100</v>
@@ -15702,7 +15717,7 @@
       <c r="K39" s="16"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -15719,7 +15734,7 @@
         <v>98</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G40" s="19" t="s">
         <v>102</v>
@@ -15731,8 +15746,8 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:11" hidden="1">
-      <c r="A41" s="46" t="s">
+    <row r="41" spans="1:11">
+      <c r="A41" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="16" t="s">
@@ -15759,8 +15774,8 @@
       </c>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:11" hidden="1">
-      <c r="A42" s="47" t="s">
+    <row r="42" spans="1:11">
+      <c r="A42" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="16" t="s">
@@ -15777,7 +15792,7 @@
         <v>98</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G42" s="18" t="s">
         <v>100</v>
@@ -15789,8 +15804,8 @@
       </c>
       <c r="K42" s="16"/>
     </row>
-    <row r="43" spans="1:11" hidden="1">
-      <c r="A43" s="47" t="s">
+    <row r="43" spans="1:11">
+      <c r="A43" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B43" s="16" t="s">
@@ -15807,7 +15822,7 @@
         <v>98</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>100</v>
@@ -15820,7 +15835,7 @@
       <c r="K43" s="16"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="16" t="s">
@@ -15837,7 +15852,7 @@
         <v>98</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G44" s="19" t="s">
         <v>102</v>
@@ -15849,8 +15864,8 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11" hidden="1">
-      <c r="A45" s="47" t="s">
+    <row r="45" spans="1:11">
+      <c r="A45" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B45" s="16" t="s">
@@ -15867,7 +15882,7 @@
         <v>98</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>100</v>
@@ -15879,8 +15894,8 @@
       </c>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:11" hidden="1">
-      <c r="A46" s="48" t="s">
+    <row r="46" spans="1:11">
+      <c r="A46" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B46" s="16" t="s">
@@ -15897,13 +15912,13 @@
         <v>98</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G46" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I46" s="16"/>
       <c r="J46" s="16" t="s">
@@ -15911,8 +15926,8 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11" hidden="1">
-      <c r="A47" s="43" t="s">
+    <row r="47" spans="1:11">
+      <c r="A47" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B47" s="16" t="s">
@@ -15929,7 +15944,7 @@
         <v>98</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G47" s="19" t="s">
         <v>102</v>
@@ -15941,8 +15956,8 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11" hidden="1">
-      <c r="A48" s="47" t="s">
+    <row r="48" spans="1:11">
+      <c r="A48" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -15959,7 +15974,7 @@
         <v>98</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>100</v>
@@ -15971,8 +15986,8 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11" hidden="1">
-      <c r="A49" s="43" t="s">
+    <row r="49" spans="1:11">
+      <c r="A49" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B49" s="16" t="s">
@@ -15989,13 +16004,13 @@
         <v>98</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="I49" s="16"/>
       <c r="J49" s="16" t="s">
@@ -16004,7 +16019,7 @@
       <c r="K49" s="16"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -16021,7 +16036,7 @@
         <v>98</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G50" s="19" t="s">
         <v>102</v>
@@ -16033,8 +16048,8 @@
       </c>
       <c r="K50" s="16"/>
     </row>
-    <row r="51" spans="1:11" hidden="1">
-      <c r="A51" s="43" t="s">
+    <row r="51" spans="1:11">
+      <c r="A51" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B51" s="16" t="s">
@@ -16051,13 +16066,13 @@
         <v>98</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="I51" s="16"/>
       <c r="J51" s="16" t="s">
@@ -16065,8 +16080,8 @@
       </c>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:11" hidden="1">
-      <c r="A52" s="43" t="s">
+    <row r="52" spans="1:11">
+      <c r="A52" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B52" s="16" t="s">
@@ -16083,13 +16098,13 @@
         <v>98</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G52" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I52" s="16"/>
       <c r="J52" s="16" t="s">
@@ -16098,7 +16113,7 @@
       <c r="K52" s="16"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="16" t="s">
@@ -16115,7 +16130,7 @@
         <v>98</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G53" s="19" t="s">
         <v>102</v>
@@ -16127,8 +16142,8 @@
       </c>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:11" hidden="1">
-      <c r="A54" s="47" t="s">
+    <row r="54" spans="1:11">
+      <c r="A54" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -16145,7 +16160,7 @@
         <v>98</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>100</v>
@@ -16157,8 +16172,8 @@
       </c>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:11" hidden="1">
-      <c r="A55" s="43" t="s">
+    <row r="55" spans="1:11">
+      <c r="A55" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B55" s="16" t="s">
@@ -16175,13 +16190,13 @@
         <v>98</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G55" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="I55" s="16"/>
       <c r="J55" s="16" t="s">
@@ -16189,8 +16204,8 @@
       </c>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:11" hidden="1">
-      <c r="A56" s="47" t="s">
+    <row r="56" spans="1:11">
+      <c r="A56" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B56" s="16" t="s">
@@ -16203,10 +16218,12 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v>Ana Paula Romagnoli</v>
       </c>
-      <c r="E56" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F56" s="16"/>
+      <c r="E56" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>274</v>
+      </c>
       <c r="G56" s="19" t="s">
         <v>102</v>
       </c>
@@ -16217,8 +16234,8 @@
       </c>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:11" hidden="1">
-      <c r="A57" s="47" t="s">
+    <row r="57" spans="1:11">
+      <c r="A57" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B57" s="16" t="s">
@@ -16235,7 +16252,7 @@
         <v>98</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="G57" s="18" t="s">
         <v>100</v>
@@ -16247,8 +16264,8 @@
       </c>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:11" hidden="1">
-      <c r="A58" s="46" t="s">
+    <row r="58" spans="1:11">
+      <c r="A58" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B58" s="16" t="s">
@@ -16275,8 +16292,8 @@
       </c>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11" hidden="1">
-      <c r="A59" s="46" t="s">
+    <row r="59" spans="1:11">
+      <c r="A59" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B59" s="16" t="s">
@@ -16305,8 +16322,8 @@
       </c>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:11" hidden="1">
-      <c r="A60" s="48" t="s">
+    <row r="60" spans="1:11">
+      <c r="A60" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B60" s="16" t="s">
@@ -16323,7 +16340,7 @@
         <v>98</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>100</v>
@@ -16335,8 +16352,8 @@
       </c>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:11" hidden="1">
-      <c r="A61" s="43" t="s">
+    <row r="61" spans="1:11">
+      <c r="A61" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B61" s="16" t="s">
@@ -16353,7 +16370,7 @@
         <v>98</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G61" s="18" t="s">
         <v>100</v>
@@ -16365,8 +16382,8 @@
       </c>
       <c r="K61" s="16"/>
     </row>
-    <row r="62" spans="1:11" hidden="1">
-      <c r="A62" s="48" t="s">
+    <row r="62" spans="1:11">
+      <c r="A62" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="16" t="s">
@@ -16383,7 +16400,7 @@
         <v>98</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G62" s="18" t="s">
         <v>100</v>
@@ -16395,8 +16412,8 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:11" hidden="1">
-      <c r="A63" s="47" t="s">
+    <row r="63" spans="1:11">
+      <c r="A63" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B63" s="16" t="s">
@@ -16413,7 +16430,7 @@
         <v>98</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G63" s="18" t="s">
         <v>100</v>
@@ -16425,8 +16442,8 @@
       </c>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11" hidden="1">
-      <c r="A64" s="48" t="s">
+    <row r="64" spans="1:11">
+      <c r="A64" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B64" s="16" t="s">
@@ -16443,7 +16460,7 @@
         <v>98</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>100</v>
@@ -16455,8 +16472,8 @@
       </c>
       <c r="K64" s="16"/>
     </row>
-    <row r="65" spans="1:11" hidden="1">
-      <c r="A65" s="43" t="s">
+    <row r="65" spans="1:11">
+      <c r="A65" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B65" s="16" t="s">
@@ -16473,26 +16490,26 @@
         <v>98</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="J65" s="16" t="s">
         <v>100</v>
       </c>
       <c r="K65" s="16" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1">
-      <c r="A66" s="43" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B66" s="16" t="s">
@@ -16509,26 +16526,26 @@
         <v>98</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G66" s="18" t="s">
         <v>100</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="I66" s="16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="J66" s="16" t="s">
         <v>100</v>
       </c>
       <c r="K66" s="16" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1">
-      <c r="A67" s="44" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B67" s="16" t="s">
@@ -16558,7 +16575,7 @@
       <c r="K67" s="16"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="45" t="s">
+      <c r="A68" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B68" s="16" t="s">
@@ -16575,7 +16592,7 @@
         <v>98</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G68" s="19" t="s">
         <v>102</v>
@@ -16588,7 +16605,7 @@
       <c r="K68" s="16"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="45" t="s">
+      <c r="A69" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B69" s="16" t="s">
@@ -16605,7 +16622,7 @@
         <v>98</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G69" s="19" t="s">
         <v>102</v>
@@ -16617,8 +16634,8 @@
       </c>
       <c r="K69" s="16"/>
     </row>
-    <row r="70" spans="1:11" hidden="1">
-      <c r="A70" s="47" t="s">
+    <row r="70" spans="1:11">
+      <c r="A70" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B70" s="16" t="s">
@@ -16646,13 +16663,7 @@
       <c r="K70" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G70" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Gustavo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <conditionalFormatting sqref="G2:G70">
     <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
